--- a/pidsg25-02.xlsx
+++ b/pidsg25-02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="p1normal" sheetId="1" state="visible" r:id="rId3"/>
@@ -485,7 +485,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -748,11 +748,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="31842635"/>
-        <c:axId val="52892965"/>
+        <c:axId val="97208869"/>
+        <c:axId val="53055525"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31842635"/>
+        <c:axId val="97208869"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +784,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52892965"/>
+        <c:crossAx val="53055525"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -792,7 +792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52892965"/>
+        <c:axId val="53055525"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31842635"/>
+        <c:crossAx val="97208869"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -993,11 +993,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="90251367"/>
-        <c:axId val="86941800"/>
+        <c:axId val="18443046"/>
+        <c:axId val="60749766"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90251367"/>
+        <c:axId val="18443046"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1029,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86941800"/>
+        <c:crossAx val="60749766"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1037,7 +1037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86941800"/>
+        <c:axId val="60749766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1076,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90251367"/>
+        <c:crossAx val="18443046"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1238,11 +1238,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="60066838"/>
-        <c:axId val="72208623"/>
+        <c:axId val="64777422"/>
+        <c:axId val="86543386"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60066838"/>
+        <c:axId val="64777422"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1274,7 +1274,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72208623"/>
+        <c:crossAx val="86543386"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1282,7 +1282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72208623"/>
+        <c:axId val="86543386"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1321,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60066838"/>
+        <c:crossAx val="64777422"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1483,11 +1483,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="95484405"/>
-        <c:axId val="70880297"/>
+        <c:axId val="65548642"/>
+        <c:axId val="52727601"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95484405"/>
+        <c:axId val="65548642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,7 +1519,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70880297"/>
+        <c:crossAx val="52727601"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1527,7 +1527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70880297"/>
+        <c:axId val="52727601"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,7 +1566,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95484405"/>
+        <c:crossAx val="65548642"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1728,11 +1728,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="282550"/>
-        <c:axId val="85824225"/>
+        <c:axId val="15982516"/>
+        <c:axId val="52480864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="282550"/>
+        <c:axId val="15982516"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,7 +1764,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85824225"/>
+        <c:crossAx val="52480864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1772,7 +1772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85824225"/>
+        <c:axId val="52480864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +1811,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282550"/>
+        <c:crossAx val="15982516"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1973,11 +1973,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="79814229"/>
-        <c:axId val="43837775"/>
+        <c:axId val="33142777"/>
+        <c:axId val="80754812"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79814229"/>
+        <c:axId val="33142777"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,7 +2009,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43837775"/>
+        <c:crossAx val="80754812"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2017,7 +2017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43837775"/>
+        <c:axId val="80754812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,7 +2056,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79814229"/>
+        <c:crossAx val="33142777"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2218,11 +2218,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="57841956"/>
-        <c:axId val="74280450"/>
+        <c:axId val="40530809"/>
+        <c:axId val="90765934"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57841956"/>
+        <c:axId val="40530809"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2254,7 +2254,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74280450"/>
+        <c:crossAx val="90765934"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2262,7 +2262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74280450"/>
+        <c:axId val="90765934"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,7 +2301,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57841956"/>
+        <c:crossAx val="40530809"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2463,11 +2463,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="13420865"/>
-        <c:axId val="7277160"/>
+        <c:axId val="91874690"/>
+        <c:axId val="44204433"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13420865"/>
+        <c:axId val="91874690"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7277160"/>
+        <c:crossAx val="44204433"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2507,7 +2507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7277160"/>
+        <c:axId val="44204433"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,7 +2546,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13420865"/>
+        <c:crossAx val="91874690"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2589,9 +2589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>709560</xdr:colOff>
+      <xdr:colOff>709200</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2600,7 +2600,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="398880" y="9380880"/>
-        <a:ext cx="4680720" cy="2928240"/>
+        <a:ext cx="4680360" cy="2927880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2619,9 +2619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:colOff>319680</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2630,7 +2630,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5153040" y="9389520"/>
-        <a:ext cx="4705920" cy="2928240"/>
+        <a:ext cx="4705560" cy="2927880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2649,9 +2649,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>701280</xdr:colOff>
+      <xdr:colOff>700920</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2660,7 +2660,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10034280" y="9380880"/>
-        <a:ext cx="4669920" cy="2928240"/>
+        <a:ext cx="4669560" cy="2927880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2679,9 +2679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>709560</xdr:colOff>
+      <xdr:colOff>709200</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2690,7 +2690,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="398880" y="12445920"/>
-        <a:ext cx="4680720" cy="2927880"/>
+        <a:ext cx="4680360" cy="2927520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2709,9 +2709,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>337320</xdr:colOff>
+      <xdr:colOff>336960</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2720,7 +2720,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5170320" y="12454560"/>
-        <a:ext cx="4705920" cy="2927880"/>
+        <a:ext cx="4705560" cy="2927520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2739,9 +2739,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>701280</xdr:colOff>
+      <xdr:colOff>700920</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2750,7 +2750,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10034280" y="12445920"/>
-        <a:ext cx="4669920" cy="2927880"/>
+        <a:ext cx="4669560" cy="2927520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2769,9 +2769,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>218520</xdr:colOff>
+      <xdr:colOff>218160</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2780,7 +2780,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="43478280" y="9554400"/>
-        <a:ext cx="4669920" cy="2928240"/>
+        <a:ext cx="4669560" cy="2927880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2799,9 +2799,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>252360</xdr:colOff>
+      <xdr:colOff>252000</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2810,7 +2810,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="71189280" y="9847080"/>
-        <a:ext cx="4669920" cy="2940480"/>
+        <a:ext cx="4669560" cy="2940120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3002,8 +3002,8 @@
   </sheetPr>
   <dimension ref="A1:CX14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C2:CX13 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3324,304 +3324,304 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>31.5076399066631</v>
+        <v>35.4453103057261</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>35.4309687805635</v>
+        <v>31.2071715285925</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>33.0762387030011</v>
+        <v>34.2583117386945</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>32.5785919986619</v>
+        <v>34.0485823150689</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>33.6407463556989</v>
+        <v>32.9226936469465</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>32.5206290379182</v>
+        <v>31.055691029481</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>33.733351752876</v>
+        <v>31.9331326993869</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>32.1680489612029</v>
+        <v>32.8087955551236</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>31.699430131941</v>
+        <v>35.6101509363643</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>32.7041881518349</v>
+        <v>32.4676534353</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>33.9800927105597</v>
+        <v>34.1497726872192</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>34.8864107753137</v>
+        <v>33.4628250666908</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>32.5591974704855</v>
+        <v>30.571720610687</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>33.8230540443579</v>
+        <v>30.0077833478736</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>30.9382365088856</v>
+        <v>29.655155846494</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>30.9135216920779</v>
+        <v>31.289322447035</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>33.3443898011665</v>
+        <v>34.3819743852266</v>
       </c>
       <c r="S2" s="3" t="n">
-        <v>35.4669805259156</v>
+        <v>33.672006000906</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>33.966453503453</v>
+        <v>33.4611469879436</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>36.0313118948449</v>
+        <v>30.6736969317809</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>34.1709436999702</v>
+        <v>29.5652015218234</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>34.4396228084494</v>
+        <v>32.4009539727409</v>
       </c>
       <c r="X2" s="3" t="n">
-        <v>32.4288488107236</v>
+        <v>32.9171064152372</v>
       </c>
       <c r="Y2" s="3" t="n">
-        <v>31.7004419667417</v>
+        <v>31.7853073605203</v>
       </c>
       <c r="Z2" s="3" t="n">
-        <v>32.7330337974448</v>
+        <v>32.3708640618243</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>31.8552927865905</v>
+        <v>31.8005071820502</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>33.3206932227344</v>
+        <v>33.4633796583364</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>32.977634049625</v>
+        <v>32.9664796842533</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>35.9813226518456</v>
+        <v>32.5351375739826</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>34.5049294846463</v>
+        <v>33.6840013941006</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>31.4034268903918</v>
+        <v>34.3722010704301</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>32.0951174587689</v>
+        <v>33.0875678612274</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>29.7197680259409</v>
+        <v>34.6635927174599</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>33.843739915251</v>
+        <v>31.3270478963498</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>33.7783726750655</v>
+        <v>33.1591634174257</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>31.4111336629822</v>
+        <v>32.6360251043771</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>32.6388672542543</v>
+        <v>31.7298848869726</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>32.64795940534</v>
+        <v>33.0381783938404</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>31.1605907949437</v>
+        <v>30.2369599312856</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>32.8294219844159</v>
+        <v>30.3931239874902</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>30.4209045964806</v>
+        <v>34.1291407314684</v>
       </c>
       <c r="AQ2" s="3" t="n">
-        <v>32.1047401337205</v>
+        <v>31.8082198798411</v>
       </c>
       <c r="AR2" s="3" t="n">
-        <v>33.875715425869</v>
+        <v>31.5283015538059</v>
       </c>
       <c r="AS2" s="3" t="n">
-        <v>33.5014132156624</v>
+        <v>32.6528076391668</v>
       </c>
       <c r="AT2" s="3" t="n">
-        <v>31.8152440381633</v>
+        <v>31.6032011795974</v>
       </c>
       <c r="AU2" s="3" t="n">
-        <v>33.4367318952725</v>
+        <v>32.7791180516669</v>
       </c>
       <c r="AV2" s="3" t="n">
-        <v>34.0761861279378</v>
+        <v>31.9656135593233</v>
       </c>
       <c r="AW2" s="3" t="n">
-        <v>34.6679217694026</v>
+        <v>32.6519161425141</v>
       </c>
       <c r="AX2" s="3" t="n">
-        <v>31.4223450534378</v>
+        <v>33.3733538002388</v>
       </c>
       <c r="AY2" s="3" t="n">
-        <v>32.6553360716348</v>
+        <v>34.4652930729081</v>
       </c>
       <c r="AZ2" s="3" t="n">
-        <v>31.0534884002309</v>
+        <v>33.9283090232266</v>
       </c>
       <c r="BA2" s="3" t="n">
-        <v>32.2209665530763</v>
+        <v>31.9641241716193</v>
       </c>
       <c r="BB2" s="3" t="n">
-        <v>31.6626554209427</v>
+        <v>32.0020008662575</v>
       </c>
       <c r="BC2" s="3" t="n">
-        <v>32.9071246476995</v>
+        <v>31.7779437065977</v>
       </c>
       <c r="BD2" s="3" t="n">
-        <v>32.0767939909572</v>
+        <v>31.0958897562349</v>
       </c>
       <c r="BE2" s="3" t="n">
-        <v>31.1708906603527</v>
+        <v>29.2184189278448</v>
       </c>
       <c r="BF2" s="3" t="n">
-        <v>34.6049053760356</v>
+        <v>34.2751056875449</v>
       </c>
       <c r="BG2" s="3" t="n">
-        <v>33.1961154427691</v>
+        <v>32.7315780605343</v>
       </c>
       <c r="BH2" s="3" t="n">
-        <v>33.22011639802</v>
+        <v>36.3633064564978</v>
       </c>
       <c r="BI2" s="3" t="n">
-        <v>30.7024732442574</v>
+        <v>29.187215434053</v>
       </c>
       <c r="BJ2" s="3" t="n">
-        <v>33.0733760989437</v>
+        <v>30.4948077848926</v>
       </c>
       <c r="BK2" s="3" t="n">
-        <v>34.5427607931977</v>
+        <v>29.4237344646278</v>
       </c>
       <c r="BL2" s="3" t="n">
-        <v>35.7871951682501</v>
+        <v>29.4037589706121</v>
       </c>
       <c r="BM2" s="3" t="n">
-        <v>33.9491043808002</v>
+        <v>33.3234853219437</v>
       </c>
       <c r="BN2" s="3" t="n">
-        <v>32.3262951203495</v>
+        <v>30.9749067653411</v>
       </c>
       <c r="BO2" s="3" t="n">
-        <v>30.7312354124482</v>
+        <v>33.2320831088872</v>
       </c>
       <c r="BP2" s="3" t="n">
-        <v>33.9339630017024</v>
+        <v>29.62391914858</v>
       </c>
       <c r="BQ2" s="3" t="n">
-        <v>34.9362964605327</v>
+        <v>31.9016927848661</v>
       </c>
       <c r="BR2" s="3" t="n">
-        <v>31.5761648992031</v>
+        <v>32.0370883686374</v>
       </c>
       <c r="BS2" s="3" t="n">
-        <v>30.8784898300674</v>
+        <v>32.463285406211</v>
       </c>
       <c r="BT2" s="3" t="n">
-        <v>32.9699346214611</v>
+        <v>30.718610350452</v>
       </c>
       <c r="BU2" s="3" t="n">
-        <v>32.3976475716594</v>
+        <v>32.4777821438276</v>
       </c>
       <c r="BV2" s="3" t="n">
-        <v>34.2149239340161</v>
+        <v>31.8763371795724</v>
       </c>
       <c r="BW2" s="3" t="n">
-        <v>31.6704789391894</v>
+        <v>34.1947297716921</v>
       </c>
       <c r="BX2" s="3" t="n">
-        <v>33.1100275801776</v>
+        <v>30.0319673066018</v>
       </c>
       <c r="BY2" s="3" t="n">
-        <v>33.650041103408</v>
+        <v>32.9788609272645</v>
       </c>
       <c r="BZ2" s="3" t="n">
-        <v>32.8844539819865</v>
+        <v>30.1117174893006</v>
       </c>
       <c r="CA2" s="3" t="n">
-        <v>34.6586005185977</v>
+        <v>32.2374465705521</v>
       </c>
       <c r="CB2" s="3" t="n">
-        <v>34.1280329596065</v>
+        <v>30.1763786326987</v>
       </c>
       <c r="CC2" s="3" t="n">
-        <v>31.800211599596</v>
+        <v>34.4769221823659</v>
       </c>
       <c r="CD2" s="3" t="n">
-        <v>35.4680933929489</v>
+        <v>32.8249983804994</v>
       </c>
       <c r="CE2" s="3" t="n">
-        <v>34.4587573471819</v>
+        <v>32.0284350105582</v>
       </c>
       <c r="CF2" s="3" t="n">
-        <v>30.2020207236804</v>
+        <v>32.0583889545867</v>
       </c>
       <c r="CG2" s="3" t="n">
-        <v>34.4956136505386</v>
+        <v>32.4593230865022</v>
       </c>
       <c r="CH2" s="3" t="n">
-        <v>33.5899516650938</v>
+        <v>35.8821282958547</v>
       </c>
       <c r="CI2" s="3" t="n">
-        <v>35.6458382095725</v>
+        <v>32.9332290828635</v>
       </c>
       <c r="CJ2" s="3" t="n">
-        <v>32.7544808538497</v>
+        <v>29.6677549230514</v>
       </c>
       <c r="CK2" s="3" t="n">
-        <v>32.7689908137061</v>
+        <v>31.7763631253759</v>
       </c>
       <c r="CL2" s="3" t="n">
-        <v>33.2551245082825</v>
+        <v>31.7935207534697</v>
       </c>
       <c r="CM2" s="3" t="n">
-        <v>31.6304839090326</v>
+        <v>33.7524329326056</v>
       </c>
       <c r="CN2" s="3" t="n">
-        <v>33.0547379313851</v>
+        <v>32.6040538681269</v>
       </c>
       <c r="CO2" s="3" t="n">
-        <v>34.415385943546</v>
+        <v>32.5091983266889</v>
       </c>
       <c r="CP2" s="3" t="n">
-        <v>34.0474148096965</v>
+        <v>31.3468048539762</v>
       </c>
       <c r="CQ2" s="3" t="n">
-        <v>30.9225180722827</v>
+        <v>33.2289386036026</v>
       </c>
       <c r="CR2" s="3" t="n">
-        <v>32.2136830202195</v>
+        <v>33.0454619237542</v>
       </c>
       <c r="CS2" s="3" t="n">
-        <v>31.063074996874</v>
+        <v>34.0997226197273</v>
       </c>
       <c r="CT2" s="3" t="n">
-        <v>30.612390423464</v>
+        <v>32.2256388013849</v>
       </c>
       <c r="CU2" s="3" t="n">
-        <v>32.0099414942438</v>
+        <v>32.4261814201111</v>
       </c>
       <c r="CV2" s="3" t="n">
-        <v>34.354797176439</v>
+        <v>33.0474123871064</v>
       </c>
       <c r="CW2" s="3" t="n">
-        <v>33.2828901041335</v>
+        <v>32.4600536628323</v>
       </c>
       <c r="CX2" s="4" t="n">
         <v>33.5691485605025</v>
@@ -3632,304 +3632,304 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>32.0101266081482</v>
+        <v>32.2580653583603</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>32.7501332205571</v>
+        <v>31.0593764604091</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>33.5236078972222</v>
+        <v>30.9598661784124</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>34.0708255857934</v>
+        <v>33.2465418941524</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>33.7987298222486</v>
+        <v>31.3931770068553</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>32.6034027651388</v>
+        <v>33.2032756812318</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>31.6532918878672</v>
+        <v>33.2042513234362</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>34.6014669463607</v>
+        <v>35.107444117618</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>31.9746172378928</v>
+        <v>31.9312020071096</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>32.6433824611715</v>
+        <v>34.5927268373205</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>32.3253502456822</v>
+        <v>34.6991185739496</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>32.0485496052451</v>
+        <v>31.1708679933203</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>33.424717308281</v>
+        <v>31.1638027496566</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>31.2652781816871</v>
+        <v>28.9617083566133</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>32.2187977017741</v>
+        <v>31.2002258398603</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>33.0619375933438</v>
+        <v>35.320028783691</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>33.0282692480329</v>
+        <v>32.0583361450729</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>31.4382858533967</v>
+        <v>32.8830818940562</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>34.0847187790814</v>
+        <v>33.0683673828918</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>34.6500285600847</v>
+        <v>31.1531299677719</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>33.4933109474304</v>
+        <v>31.3426509312478</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>34.2095386546193</v>
+        <v>34.1980078161685</v>
       </c>
       <c r="X3" s="3" t="n">
-        <v>33.8813908910142</v>
+        <v>30.7556319438795</v>
       </c>
       <c r="Y3" s="3" t="n">
-        <v>33.5540458477845</v>
+        <v>33.0234295902658</v>
       </c>
       <c r="Z3" s="3" t="n">
-        <v>33.0063028564457</v>
+        <v>31.3566097520586</v>
       </c>
       <c r="AA3" s="3" t="n">
-        <v>32.4364383588991</v>
+        <v>33.6970377606473</v>
       </c>
       <c r="AB3" s="3" t="n">
-        <v>32.6968380324198</v>
+        <v>33.558774545049</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.6137202169445</v>
+        <v>32.5740092076138</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>34.1894810300445</v>
+        <v>33.235519909999</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>31.6483556510127</v>
+        <v>31.2556968762875</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>32.4023795630807</v>
+        <v>33.840453524939</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>34.1948523877289</v>
+        <v>32.804862908247</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>34.005052765833</v>
+        <v>33.973332181196</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>33.4764368296787</v>
+        <v>31.3680397354969</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>32.2376818635018</v>
+        <v>32.0496477661673</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>31.4434965672581</v>
+        <v>31.68826952201</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>33.7019225435234</v>
+        <v>32.2186147720696</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>30.8403220043309</v>
+        <v>34.4695751212104</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>30.5851061426277</v>
+        <v>32.4278559880839</v>
       </c>
       <c r="AO3" s="3" t="n">
-        <v>33.0309363544375</v>
+        <v>31.987523829553</v>
       </c>
       <c r="AP3" s="3" t="n">
-        <v>31.4815531971889</v>
+        <v>32.6087881627112</v>
       </c>
       <c r="AQ3" s="3" t="n">
-        <v>29.5397294169782</v>
+        <v>30.4279229307941</v>
       </c>
       <c r="AR3" s="3" t="n">
-        <v>32.3739472450005</v>
+        <v>34.4973379770724</v>
       </c>
       <c r="AS3" s="3" t="n">
-        <v>34.284432313173</v>
+        <v>29.4032516897132</v>
       </c>
       <c r="AT3" s="3" t="n">
-        <v>32.6523128457474</v>
+        <v>30.4596558681563</v>
       </c>
       <c r="AU3" s="3" t="n">
-        <v>32.3647574874316</v>
+        <v>34.0831499749764</v>
       </c>
       <c r="AV3" s="3" t="n">
-        <v>32.9981810784717</v>
+        <v>30.5155904650637</v>
       </c>
       <c r="AW3" s="3" t="n">
-        <v>33.0576286818133</v>
+        <v>35.4158271824358</v>
       </c>
       <c r="AX3" s="3" t="n">
-        <v>32.6370636849263</v>
+        <v>33.5227024292057</v>
       </c>
       <c r="AY3" s="3" t="n">
-        <v>33.9356450400752</v>
+        <v>35.7297402710409</v>
       </c>
       <c r="AZ3" s="3" t="n">
-        <v>33.1821269751989</v>
+        <v>33.5534786383978</v>
       </c>
       <c r="BA3" s="3" t="n">
-        <v>31.2781037792639</v>
+        <v>32.4864640192476</v>
       </c>
       <c r="BB3" s="3" t="n">
-        <v>31.1403353245546</v>
+        <v>32.1374221733254</v>
       </c>
       <c r="BC3" s="3" t="n">
-        <v>32.3597319451545</v>
+        <v>32.787264522108</v>
       </c>
       <c r="BD3" s="3" t="n">
-        <v>33.9722147024465</v>
+        <v>32.6707453709311</v>
       </c>
       <c r="BE3" s="3" t="n">
-        <v>32.6574065991165</v>
+        <v>31.8635957609014</v>
       </c>
       <c r="BF3" s="3" t="n">
-        <v>34.105104178285</v>
+        <v>34.7660946520367</v>
       </c>
       <c r="BG3" s="3" t="n">
-        <v>34.2120002068442</v>
+        <v>34.6099449436845</v>
       </c>
       <c r="BH3" s="3" t="n">
-        <v>32.182306678985</v>
+        <v>32.103293502035</v>
       </c>
       <c r="BI3" s="3" t="n">
-        <v>31.0233224185023</v>
+        <v>31.6165410153425</v>
       </c>
       <c r="BJ3" s="3" t="n">
-        <v>33.3081445862682</v>
+        <v>32.5921873646509</v>
       </c>
       <c r="BK3" s="3" t="n">
-        <v>33.1741511518319</v>
+        <v>32.8725400491615</v>
       </c>
       <c r="BL3" s="3" t="n">
-        <v>31.9412196180131</v>
+        <v>30.9105223001458</v>
       </c>
       <c r="BM3" s="3" t="n">
-        <v>34.1164271288307</v>
+        <v>29.5693412304717</v>
       </c>
       <c r="BN3" s="3" t="n">
-        <v>31.4587611646105</v>
+        <v>29.9410281703809</v>
       </c>
       <c r="BO3" s="3" t="n">
-        <v>32.8137176802949</v>
+        <v>30.6256187026003</v>
       </c>
       <c r="BP3" s="3" t="n">
-        <v>33.8237932674633</v>
+        <v>29.6188614353171</v>
       </c>
       <c r="BQ3" s="3" t="n">
-        <v>35.2287659525989</v>
+        <v>31.5732164867174</v>
       </c>
       <c r="BR3" s="3" t="n">
-        <v>31.9777925408663</v>
+        <v>32.5079299629893</v>
       </c>
       <c r="BS3" s="3" t="n">
-        <v>31.335505842905</v>
+        <v>29.7822190995304</v>
       </c>
       <c r="BT3" s="3" t="n">
-        <v>30.9878944566358</v>
+        <v>28.9770362541403</v>
       </c>
       <c r="BU3" s="3" t="n">
-        <v>35.3756686690934</v>
+        <v>31.8379196563007</v>
       </c>
       <c r="BV3" s="3" t="n">
-        <v>32.3512754564586</v>
+        <v>29.2031638336023</v>
       </c>
       <c r="BW3" s="3" t="n">
-        <v>30.667251425885</v>
+        <v>32.0465494406292</v>
       </c>
       <c r="BX3" s="3" t="n">
-        <v>35.1356560089377</v>
+        <v>30.4019546216292</v>
       </c>
       <c r="BY3" s="3" t="n">
-        <v>32.7779720893981</v>
+        <v>32.9572559096759</v>
       </c>
       <c r="BZ3" s="3" t="n">
-        <v>32.1881335655774</v>
+        <v>31.5823652978539</v>
       </c>
       <c r="CA3" s="3" t="n">
-        <v>35.4278354080578</v>
+        <v>33.6531400607014</v>
       </c>
       <c r="CB3" s="3" t="n">
-        <v>35.3746037331908</v>
+        <v>32.5591028601862</v>
       </c>
       <c r="CC3" s="3" t="n">
-        <v>32.8126455525119</v>
+        <v>34.680497176848</v>
       </c>
       <c r="CD3" s="3" t="n">
-        <v>34.5363251591366</v>
+        <v>32.8601322048119</v>
       </c>
       <c r="CE3" s="3" t="n">
-        <v>32.7234782790535</v>
+        <v>31.2811624810965</v>
       </c>
       <c r="CF3" s="3" t="n">
-        <v>35.6642885770129</v>
+        <v>32.2274901751522</v>
       </c>
       <c r="CG3" s="3" t="n">
-        <v>33.485014422704</v>
+        <v>34.0198063686467</v>
       </c>
       <c r="CH3" s="3" t="n">
-        <v>31.3675838162227</v>
+        <v>33.8375755095269</v>
       </c>
       <c r="CI3" s="3" t="n">
-        <v>33.2895575862741</v>
+        <v>34.0956484598675</v>
       </c>
       <c r="CJ3" s="3" t="n">
-        <v>31.284361995195</v>
+        <v>30.5705869077716</v>
       </c>
       <c r="CK3" s="3" t="n">
-        <v>31.1167415397486</v>
+        <v>30.489821332357</v>
       </c>
       <c r="CL3" s="3" t="n">
-        <v>31.7256821634273</v>
+        <v>32.7921455574097</v>
       </c>
       <c r="CM3" s="3" t="n">
-        <v>34.7873547127598</v>
+        <v>31.1349738795827</v>
       </c>
       <c r="CN3" s="3" t="n">
-        <v>31.3952467196159</v>
+        <v>31.8093204075331</v>
       </c>
       <c r="CO3" s="3" t="n">
-        <v>33.1067137581011</v>
+        <v>31.3115708282673</v>
       </c>
       <c r="CP3" s="3" t="n">
-        <v>32.858891808785</v>
+        <v>33.7729738142428</v>
       </c>
       <c r="CQ3" s="3" t="n">
-        <v>33.1532545306743</v>
+        <v>35.6391600488355</v>
       </c>
       <c r="CR3" s="3" t="n">
-        <v>32.7843928549401</v>
+        <v>33.7667712194236</v>
       </c>
       <c r="CS3" s="3" t="n">
-        <v>31.8449490319046</v>
+        <v>32.7584581828275</v>
       </c>
       <c r="CT3" s="3" t="n">
-        <v>32.3176676928762</v>
+        <v>30.9479812224775</v>
       </c>
       <c r="CU3" s="3" t="n">
-        <v>32.0008518731919</v>
+        <v>31.8457728506279</v>
       </c>
       <c r="CV3" s="3" t="n">
-        <v>34.7623770483935</v>
+        <v>34.8864129348609</v>
       </c>
       <c r="CW3" s="3" t="n">
-        <v>32.5761601272615</v>
+        <v>31.9272029131652</v>
       </c>
       <c r="CX3" s="4" t="n">
         <v>34.2309015778595</v>
@@ -3940,304 +3940,304 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>30.3630738341873</v>
+        <v>30.6568639642971</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>32.0044342567931</v>
+        <v>31.2487627050583</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>34.4506050730863</v>
+        <v>34.3844790667808</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>32.8096252824794</v>
+        <v>30.1275033580954</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>35.6708304760443</v>
+        <v>33.3329073864138</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>32.7803394336771</v>
+        <v>29.8352193859539</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>31.4569723875079</v>
+        <v>30.4346790533228</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>34.3725666477014</v>
+        <v>32.6969974781292</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>31.0591568658759</v>
+        <v>29.5793742732473</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>34.3918566281743</v>
+        <v>33.9905335465167</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>31.4291649608208</v>
+        <v>30.7651533869226</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>32.8298831515683</v>
+        <v>30.0469412882989</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>34.1099683790054</v>
+        <v>29.9074130543073</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>33.3958579915721</v>
+        <v>30.6622761433142</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>34.4301878371703</v>
+        <v>32.8410052015985</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>31.0095596323684</v>
+        <v>31.2135398565923</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>33.5388444860315</v>
+        <v>33.0481618680518</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>32.9471492400216</v>
+        <v>29.6873425122201</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>31.5958777238664</v>
+        <v>31.5944911675222</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>31.4371517642115</v>
+        <v>30.9070280635052</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>32.4753927461099</v>
+        <v>32.0927930834888</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>33.4798486101766</v>
+        <v>31.8846919408484</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>32.1354845105862</v>
+        <v>32.2130852719349</v>
       </c>
       <c r="Y4" s="3" t="n">
-        <v>34.9298015159804</v>
+        <v>28.9216960597794</v>
       </c>
       <c r="Z4" s="3" t="n">
-        <v>34.6088638410063</v>
+        <v>32.2280969640018</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>30.5079784125794</v>
+        <v>32.0601716913201</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>34.1429544752989</v>
+        <v>34.1048620094977</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>31.97832616838</v>
+        <v>32.1035888399527</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>33.7312509103006</v>
+        <v>30.157131641486</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>33.4103578178459</v>
+        <v>30.0379624559046</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>33.9569576897109</v>
+        <v>32.748350802759</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>33.544068050214</v>
+        <v>32.4293845361515</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>34.4818539539154</v>
+        <v>30.2209722504302</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>31.7758671810644</v>
+        <v>30.9488592213661</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>35.1932836555609</v>
+        <v>32.3246285989414</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>32.6287032338323</v>
+        <v>32.4839469372129</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>32.6395638768607</v>
+        <v>30.8085974401836</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>33.1872612885352</v>
+        <v>30.1863220067991</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>31.263742166676</v>
+        <v>31.3933418432594</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>31.3523433469104</v>
+        <v>32.4757353911773</v>
       </c>
       <c r="AP4" s="3" t="n">
-        <v>34.1664163518842</v>
+        <v>31.3315373336433</v>
       </c>
       <c r="AQ4" s="3" t="n">
-        <v>32.5277508397123</v>
+        <v>32.1113082403714</v>
       </c>
       <c r="AR4" s="3" t="n">
-        <v>32.8396767010838</v>
+        <v>31.4958542562949</v>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>34.0734909957069</v>
+        <v>32.1387952797729</v>
       </c>
       <c r="AT4" s="3" t="n">
-        <v>33.6190804858512</v>
+        <v>31.0436035468505</v>
       </c>
       <c r="AU4" s="3" t="n">
-        <v>32.144642888202</v>
+        <v>31.850701451128</v>
       </c>
       <c r="AV4" s="3" t="n">
-        <v>32.1311640832718</v>
+        <v>31.5123311733335</v>
       </c>
       <c r="AW4" s="3" t="n">
-        <v>33.5013457822052</v>
+        <v>30.6390356461546</v>
       </c>
       <c r="AX4" s="3" t="n">
-        <v>33.8096604051935</v>
+        <v>31.9620244627474</v>
       </c>
       <c r="AY4" s="3" t="n">
-        <v>32.432203455012</v>
+        <v>33.133361958621</v>
       </c>
       <c r="AZ4" s="3" t="n">
-        <v>31.906652682763</v>
+        <v>32.1592452001677</v>
       </c>
       <c r="BA4" s="3" t="n">
-        <v>31.48744754209</v>
+        <v>29.4206200713344</v>
       </c>
       <c r="BB4" s="3" t="n">
-        <v>32.7379736165715</v>
+        <v>34.1899480000281</v>
       </c>
       <c r="BC4" s="3" t="n">
-        <v>31.5926911960678</v>
+        <v>30.2809544182219</v>
       </c>
       <c r="BD4" s="3" t="n">
-        <v>34.9712607578217</v>
+        <v>32.689326573819</v>
       </c>
       <c r="BE4" s="3" t="n">
-        <v>30.2542929935133</v>
+        <v>33.0459453648275</v>
       </c>
       <c r="BF4" s="3" t="n">
-        <v>34.28608735375</v>
+        <v>31.1740033574255</v>
       </c>
       <c r="BG4" s="3" t="n">
-        <v>33.1944608334114</v>
+        <v>33.0259931577345</v>
       </c>
       <c r="BH4" s="3" t="n">
-        <v>32.046972384336</v>
+        <v>31.5900230769319</v>
       </c>
       <c r="BI4" s="3" t="n">
-        <v>32.1779833221117</v>
+        <v>30.8670405109364</v>
       </c>
       <c r="BJ4" s="3" t="n">
-        <v>31.8767435741603</v>
+        <v>32.5877896548236</v>
       </c>
       <c r="BK4" s="3" t="n">
-        <v>32.413378438863</v>
+        <v>32.3180349176962</v>
       </c>
       <c r="BL4" s="3" t="n">
-        <v>33.3466781213332</v>
+        <v>30.619488984892</v>
       </c>
       <c r="BM4" s="3" t="n">
-        <v>34.2235508836261</v>
+        <v>33.9524714068578</v>
       </c>
       <c r="BN4" s="3" t="n">
-        <v>33.193863815698</v>
+        <v>33.3903483265619</v>
       </c>
       <c r="BO4" s="3" t="n">
-        <v>33.1716596585832</v>
+        <v>34.0482923576371</v>
       </c>
       <c r="BP4" s="3" t="n">
-        <v>32.3559224929635</v>
+        <v>32.8775072277847</v>
       </c>
       <c r="BQ4" s="3" t="n">
-        <v>33.1180122448411</v>
+        <v>33.2906016195982</v>
       </c>
       <c r="BR4" s="3" t="n">
-        <v>32.0163794821913</v>
+        <v>32.6314720940358</v>
       </c>
       <c r="BS4" s="3" t="n">
-        <v>33.7399430031388</v>
+        <v>30.9711454283729</v>
       </c>
       <c r="BT4" s="3" t="n">
-        <v>31.3163107381217</v>
+        <v>29.2885826811399</v>
       </c>
       <c r="BU4" s="3" t="n">
-        <v>35.1067284961201</v>
+        <v>29.3216155180208</v>
       </c>
       <c r="BV4" s="3" t="n">
-        <v>32.749343435156</v>
+        <v>32.9202098596925</v>
       </c>
       <c r="BW4" s="3" t="n">
-        <v>31.832176528657</v>
+        <v>30.968592691053</v>
       </c>
       <c r="BX4" s="3" t="n">
-        <v>36.2785393722122</v>
+        <v>30.527418905607</v>
       </c>
       <c r="BY4" s="3" t="n">
-        <v>32.7745229573731</v>
+        <v>30.1596283313997</v>
       </c>
       <c r="BZ4" s="3" t="n">
-        <v>32.2805606566957</v>
+        <v>32.3658044085042</v>
       </c>
       <c r="CA4" s="3" t="n">
-        <v>33.9472514549073</v>
+        <v>31.2122855369396</v>
       </c>
       <c r="CB4" s="3" t="n">
-        <v>35.9156072658852</v>
+        <v>31.242205652482</v>
       </c>
       <c r="CC4" s="3" t="n">
-        <v>32.6816449992927</v>
+        <v>31.614945089618</v>
       </c>
       <c r="CD4" s="3" t="n">
-        <v>35.1613132678241</v>
+        <v>32.4459027326047</v>
       </c>
       <c r="CE4" s="3" t="n">
-        <v>35.1306801768319</v>
+        <v>30.8773089311154</v>
       </c>
       <c r="CF4" s="3" t="n">
-        <v>32.9983996719475</v>
+        <v>32.6391604324236</v>
       </c>
       <c r="CG4" s="3" t="n">
-        <v>34.4221350410506</v>
+        <v>30.9156645542839</v>
       </c>
       <c r="CH4" s="3" t="n">
-        <v>34.3347349201952</v>
+        <v>33.185365662205</v>
       </c>
       <c r="CI4" s="3" t="n">
-        <v>33.060852447283</v>
+        <v>31.7849405949817</v>
       </c>
       <c r="CJ4" s="3" t="n">
-        <v>33.1848577002234</v>
+        <v>31.7593650189058</v>
       </c>
       <c r="CK4" s="3" t="n">
-        <v>30.4054019009043</v>
+        <v>31.0018577366973</v>
       </c>
       <c r="CL4" s="3" t="n">
-        <v>31.8202586076495</v>
+        <v>30.8748642107829</v>
       </c>
       <c r="CM4" s="3" t="n">
-        <v>34.1192554369575</v>
+        <v>31.8960731884555</v>
       </c>
       <c r="CN4" s="3" t="n">
-        <v>33.4895517442967</v>
+        <v>31.6297816723471</v>
       </c>
       <c r="CO4" s="3" t="n">
-        <v>33.3131906233982</v>
+        <v>30.0249099659026</v>
       </c>
       <c r="CP4" s="3" t="n">
-        <v>33.2028213174663</v>
+        <v>31.7385997844677</v>
       </c>
       <c r="CQ4" s="3" t="n">
-        <v>33.4936883973161</v>
+        <v>32.4205040594563</v>
       </c>
       <c r="CR4" s="3" t="n">
-        <v>30.1314373470224</v>
+        <v>30.0558365163639</v>
       </c>
       <c r="CS4" s="3" t="n">
-        <v>34.5764543314156</v>
+        <v>32.6892100964703</v>
       </c>
       <c r="CT4" s="3" t="n">
-        <v>31.8885334280235</v>
+        <v>32.4135658874866</v>
       </c>
       <c r="CU4" s="3" t="n">
-        <v>32.5753401584801</v>
+        <v>30.6956752040467</v>
       </c>
       <c r="CV4" s="3" t="n">
-        <v>35.5625764732133</v>
+        <v>33.0667609824282</v>
       </c>
       <c r="CW4" s="3" t="n">
-        <v>33.8788934376863</v>
+        <v>32.5372770548818</v>
       </c>
       <c r="CX4" s="4" t="n">
         <v>34.3241178564629</v>
@@ -4248,304 +4248,304 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>33.4460909337358</v>
+        <v>34.1538017363835</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>34.5236379476704</v>
+        <v>32.45168528305</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>32.3778530541785</v>
+        <v>32.6282605822934</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>34.5585749729131</v>
+        <v>33.1040895378785</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>35.4492617098012</v>
+        <v>32.3794553032998</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>33.3943975241759</v>
+        <v>31.7065769538259</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>33.6032997813098</v>
+        <v>33.3343549972396</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>31.7730929434844</v>
+        <v>32.5842411208539</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>32.9488390590019</v>
+        <v>32.7757103384812</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>34.9356352753688</v>
+        <v>32.1380115171233</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>33.3844345524336</v>
+        <v>34.172474583713</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>32.7475185330129</v>
+        <v>30.0553860209055</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>34.562557479427</v>
+        <v>33.7172415473475</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>32.8078685388879</v>
+        <v>32.611502012065</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>32.5470038655535</v>
+        <v>30.5686786523744</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>31.2083464080759</v>
+        <v>34.0321819285269</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>32.4471143043341</v>
+        <v>31.071227622345</v>
       </c>
       <c r="S5" s="3" t="n">
-        <v>34.9185678039539</v>
+        <v>29.5482029240287</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>33.1448799148402</v>
+        <v>33.9334509284089</v>
       </c>
       <c r="U5" s="3" t="n">
-        <v>32.3692690785345</v>
+        <v>30.3596488161848</v>
       </c>
       <c r="V5" s="3" t="n">
-        <v>32.257223623601</v>
+        <v>33.7024348389437</v>
       </c>
       <c r="W5" s="3" t="n">
-        <v>35.9179801267141</v>
+        <v>34.0648095311687</v>
       </c>
       <c r="X5" s="3" t="n">
-        <v>31.8975979882285</v>
+        <v>31.1157452522751</v>
       </c>
       <c r="Y5" s="3" t="n">
-        <v>34.4588777242174</v>
+        <v>33.0196311688708</v>
       </c>
       <c r="Z5" s="3" t="n">
-        <v>33.6750570198825</v>
+        <v>34.9524112154383</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>32.3429475754893</v>
+        <v>31.4628774129764</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>31.3761316006254</v>
+        <v>32.6469976559568</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>34.0741283361913</v>
+        <v>34.5339931235431</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>34.5349962037077</v>
+        <v>30.3007988620391</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>33.6538072140127</v>
+        <v>33.2050907327233</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>31.4903518701498</v>
+        <v>34.64914741329</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>31.0255246594081</v>
+        <v>35.6457415504393</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>33.2189637304197</v>
+        <v>34.8428024571203</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>33.8783702715433</v>
+        <v>33.4781091016203</v>
       </c>
       <c r="AJ5" s="3" t="n">
-        <v>31.3156392663048</v>
+        <v>35.4401917740386</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>34.0738241639825</v>
+        <v>34.1106780833818</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>32.8828857724946</v>
+        <v>30.9229373460405</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>35.1992605054421</v>
+        <v>33.7185155863721</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>31.5575162851318</v>
+        <v>32.4354321079787</v>
       </c>
       <c r="AO5" s="3" t="n">
-        <v>32.5314850434656</v>
+        <v>34.1706179876087</v>
       </c>
       <c r="AP5" s="3" t="n">
-        <v>33.2667253558949</v>
+        <v>34.0840403596078</v>
       </c>
       <c r="AQ5" s="3" t="n">
-        <v>31.8237843054108</v>
+        <v>34.2560080022429</v>
       </c>
       <c r="AR5" s="3" t="n">
-        <v>31.9195065841138</v>
+        <v>32.7525884466716</v>
       </c>
       <c r="AS5" s="3" t="n">
-        <v>35.707186960281</v>
+        <v>30.1976254481288</v>
       </c>
       <c r="AT5" s="3" t="n">
-        <v>31.8967631379054</v>
+        <v>34.8112947730074</v>
       </c>
       <c r="AU5" s="3" t="n">
-        <v>30.8520478522318</v>
+        <v>30.9689142811653</v>
       </c>
       <c r="AV5" s="3" t="n">
-        <v>32.4878354610014</v>
+        <v>30.989353698209</v>
       </c>
       <c r="AW5" s="3" t="n">
-        <v>32.2666643995348</v>
+        <v>32.6474213311386</v>
       </c>
       <c r="AX5" s="3" t="n">
-        <v>33.1437714388468</v>
+        <v>33.2930598209794</v>
       </c>
       <c r="AY5" s="3" t="n">
-        <v>32.9971112324907</v>
+        <v>32.849088840741</v>
       </c>
       <c r="AZ5" s="3" t="n">
-        <v>31.2260119216249</v>
+        <v>35.9962452392469</v>
       </c>
       <c r="BA5" s="3" t="n">
-        <v>31.7703618551509</v>
+        <v>33.0139953998519</v>
       </c>
       <c r="BB5" s="3" t="n">
-        <v>32.4299909385026</v>
+        <v>34.2000166270246</v>
       </c>
       <c r="BC5" s="3" t="n">
-        <v>33.5501452225422</v>
+        <v>30.5451237534546</v>
       </c>
       <c r="BD5" s="3" t="n">
-        <v>33.5683857223454</v>
+        <v>31.6033070741343</v>
       </c>
       <c r="BE5" s="3" t="n">
-        <v>31.5781953057341</v>
+        <v>31.5001118892631</v>
       </c>
       <c r="BF5" s="3" t="n">
-        <v>34.3802697198559</v>
+        <v>34.2441492526734</v>
       </c>
       <c r="BG5" s="3" t="n">
-        <v>34.9412066428934</v>
+        <v>34.3752420037691</v>
       </c>
       <c r="BH5" s="3" t="n">
-        <v>33.8214724908304</v>
+        <v>33.6931524441251</v>
       </c>
       <c r="BI5" s="3" t="n">
-        <v>33.2381066166343</v>
+        <v>33.1953399979198</v>
       </c>
       <c r="BJ5" s="3" t="n">
-        <v>36.6743426647276</v>
+        <v>34.9540777634449</v>
       </c>
       <c r="BK5" s="3" t="n">
-        <v>34.7146307392704</v>
+        <v>34.9340546263044</v>
       </c>
       <c r="BL5" s="3" t="n">
-        <v>33.2463239172987</v>
+        <v>31.1634216090895</v>
       </c>
       <c r="BM5" s="3" t="n">
-        <v>32.4709092322548</v>
+        <v>33.8203514248225</v>
       </c>
       <c r="BN5" s="3" t="n">
-        <v>32.8555858083807</v>
+        <v>33.2966241931715</v>
       </c>
       <c r="BO5" s="3" t="n">
-        <v>33.0514073169058</v>
+        <v>34.5699779968864</v>
       </c>
       <c r="BP5" s="3" t="n">
-        <v>33.8220400510712</v>
+        <v>30.7156831035314</v>
       </c>
       <c r="BQ5" s="3" t="n">
-        <v>34.3265736261343</v>
+        <v>32.0196200214622</v>
       </c>
       <c r="BR5" s="3" t="n">
-        <v>29.6776578712033</v>
+        <v>33.2926420567723</v>
       </c>
       <c r="BS5" s="3" t="n">
-        <v>33.0734853812064</v>
+        <v>31.5689910796056</v>
       </c>
       <c r="BT5" s="3" t="n">
-        <v>34.5234958671472</v>
+        <v>30.9056470465969</v>
       </c>
       <c r="BU5" s="3" t="n">
-        <v>32.3446004393293</v>
+        <v>32.4753043443791</v>
       </c>
       <c r="BV5" s="3" t="n">
-        <v>32.2948499067131</v>
+        <v>33.13409199263</v>
       </c>
       <c r="BW5" s="3" t="n">
-        <v>33.7304931530079</v>
+        <v>31.4339726459739</v>
       </c>
       <c r="BX5" s="3" t="n">
-        <v>33.9046775377801</v>
+        <v>34.1658842752264</v>
       </c>
       <c r="BY5" s="3" t="n">
-        <v>34.9114548553461</v>
+        <v>31.8134851094645</v>
       </c>
       <c r="BZ5" s="3" t="n">
-        <v>31.6692480364031</v>
+        <v>31.4554988504695</v>
       </c>
       <c r="CA5" s="3" t="n">
-        <v>34.8067899467317</v>
+        <v>32.2743669741688</v>
       </c>
       <c r="CB5" s="3" t="n">
-        <v>35.0942678706682</v>
+        <v>32.7565793870992</v>
       </c>
       <c r="CC5" s="3" t="n">
-        <v>30.5651302466313</v>
+        <v>32.9607558681031</v>
       </c>
       <c r="CD5" s="3" t="n">
-        <v>33.2037658493627</v>
+        <v>32.1153714234123</v>
       </c>
       <c r="CE5" s="3" t="n">
-        <v>33.104835907158</v>
+        <v>33.0937447907197</v>
       </c>
       <c r="CF5" s="3" t="n">
-        <v>33.8422295152848</v>
+        <v>33.4735038493742</v>
       </c>
       <c r="CG5" s="3" t="n">
-        <v>35.509097509865</v>
+        <v>33.531979119957</v>
       </c>
       <c r="CH5" s="3" t="n">
-        <v>34.535397489308</v>
+        <v>32.8809649186739</v>
       </c>
       <c r="CI5" s="3" t="n">
-        <v>33.7108178476142</v>
+        <v>34.6552239557192</v>
       </c>
       <c r="CJ5" s="3" t="n">
-        <v>33.0229371164674</v>
+        <v>33.6337354692264</v>
       </c>
       <c r="CK5" s="3" t="n">
-        <v>32.24838488419</v>
+        <v>33.5196681932378</v>
       </c>
       <c r="CL5" s="3" t="n">
-        <v>32.1827923465771</v>
+        <v>32.7345831375152</v>
       </c>
       <c r="CM5" s="3" t="n">
-        <v>34.425271524555</v>
+        <v>35.0847131058276</v>
       </c>
       <c r="CN5" s="3" t="n">
-        <v>33.2562862963971</v>
+        <v>34.8371999518542</v>
       </c>
       <c r="CO5" s="3" t="n">
-        <v>34.3251641424628</v>
+        <v>31.2152637867303</v>
       </c>
       <c r="CP5" s="3" t="n">
-        <v>33.0042784034374</v>
+        <v>33.464945885232</v>
       </c>
       <c r="CQ5" s="3" t="n">
-        <v>32.834601517945</v>
+        <v>34.0225678755954</v>
       </c>
       <c r="CR5" s="3" t="n">
-        <v>34.298959083282</v>
+        <v>31.7143911866021</v>
       </c>
       <c r="CS5" s="3" t="n">
-        <v>33.0472425206284</v>
+        <v>30.6402665416684</v>
       </c>
       <c r="CT5" s="3" t="n">
-        <v>34.1983706123954</v>
+        <v>30.5075198379725</v>
       </c>
       <c r="CU5" s="3" t="n">
-        <v>32.4139709476008</v>
+        <v>32.7815103601651</v>
       </c>
       <c r="CV5" s="3" t="n">
-        <v>34.3649782635397</v>
+        <v>32.1147666193554</v>
       </c>
       <c r="CW5" s="3" t="n">
-        <v>31.2589639349434</v>
+        <v>31.4462698434195</v>
       </c>
       <c r="CX5" s="4" t="n">
         <v>32.6192735416507</v>
@@ -4556,304 +4556,304 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>30.0285358289508</v>
+        <v>34.6740713349651</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>36.495314116716</v>
+        <v>30.0728610943842</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>35.4574081357058</v>
+        <v>31.9149529578067</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>31.9992191416554</v>
+        <v>33.2815319285576</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>34.7924910437298</v>
+        <v>30.4806555666476</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>34.3663128841997</v>
+        <v>30.2253751172333</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>35.8420501250278</v>
+        <v>30.5969567717126</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>33.3380604857891</v>
+        <v>30.0582694536546</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>33.5052997097424</v>
+        <v>31.7197075076118</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>35.7560051449286</v>
+        <v>30.4243819120571</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>34.7015246047119</v>
+        <v>33.2192325600573</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>33.4158152539155</v>
+        <v>30.1299181926379</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>33.42693443699</v>
+        <v>30.2372323531639</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>33.6806608279092</v>
+        <v>30.5908915638857</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>31.5917951678553</v>
+        <v>30.8004024293666</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>32.7154016993236</v>
+        <v>32.7867133701559</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>33.6308482471201</v>
+        <v>32.6823512007048</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>33.7533763447317</v>
+        <v>32.1126292414299</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>33.4726526194435</v>
+        <v>31.4998549149491</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>33.9467723802037</v>
+        <v>30.9082401364615</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>32.8930691548113</v>
+        <v>32.2039377520285</v>
       </c>
       <c r="W6" s="3" t="n">
-        <v>33.3553008335367</v>
+        <v>32.0087159277318</v>
       </c>
       <c r="X6" s="3" t="n">
-        <v>34.5605860664128</v>
+        <v>30.4527104209446</v>
       </c>
       <c r="Y6" s="3" t="n">
-        <v>36.1658398290096</v>
+        <v>32.5497377463134</v>
       </c>
       <c r="Z6" s="3" t="n">
-        <v>35.0145750682209</v>
+        <v>30.1441365849261</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>34.455878558565</v>
+        <v>32.0290449480919</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>32.5685823680211</v>
+        <v>29.7432179089367</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.4976185404099</v>
+        <v>32.3181434271759</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>32.7283928819073</v>
+        <v>33.3014272430785</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>32.2241315996343</v>
+        <v>31.0886952567646</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>32.8619096063323</v>
+        <v>30.8943559602482</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>32.5389351278719</v>
+        <v>33.6963123608843</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>32.2241130853247</v>
+        <v>31.9549519320092</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>33.9557081621697</v>
+        <v>30.9576485476534</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>33.0921498151922</v>
+        <v>30.5688197901748</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>31.4898210652076</v>
+        <v>31.6137223905893</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>33.2947890444805</v>
+        <v>29.96227490291</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>32.4790044218608</v>
+        <v>33.9983765111577</v>
       </c>
       <c r="AN6" s="3" t="n">
-        <v>33.1571658511451</v>
+        <v>32.0062425355875</v>
       </c>
       <c r="AO6" s="3" t="n">
-        <v>34.7284807508179</v>
+        <v>30.9826482861091</v>
       </c>
       <c r="AP6" s="3" t="n">
-        <v>32.6135796323361</v>
+        <v>32.2179983624263</v>
       </c>
       <c r="AQ6" s="3" t="n">
-        <v>33.5319742962154</v>
+        <v>33.3621129240181</v>
       </c>
       <c r="AR6" s="3" t="n">
-        <v>33.4014128382314</v>
+        <v>32.4830972625423</v>
       </c>
       <c r="AS6" s="3" t="n">
-        <v>32.3940017071025</v>
+        <v>31.1860651545563</v>
       </c>
       <c r="AT6" s="3" t="n">
-        <v>32.8520356664</v>
+        <v>31.6148574824478</v>
       </c>
       <c r="AU6" s="3" t="n">
-        <v>31.0386807786786</v>
+        <v>31.8883310617335</v>
       </c>
       <c r="AV6" s="3" t="n">
-        <v>34.6167043036114</v>
+        <v>30.1279803316661</v>
       </c>
       <c r="AW6" s="3" t="n">
-        <v>33.4728829344464</v>
+        <v>33.1207733433151</v>
       </c>
       <c r="AX6" s="3" t="n">
-        <v>31.8395300927806</v>
+        <v>32.1093644779569</v>
       </c>
       <c r="AY6" s="3" t="n">
-        <v>33.5474381573776</v>
+        <v>32.3021723025889</v>
       </c>
       <c r="AZ6" s="3" t="n">
-        <v>33.0520544054416</v>
+        <v>34.7051102599017</v>
       </c>
       <c r="BA6" s="3" t="n">
-        <v>30.4611481768358</v>
+        <v>32.0885381291014</v>
       </c>
       <c r="BB6" s="3" t="n">
-        <v>34.067862931184</v>
+        <v>32.2444344379953</v>
       </c>
       <c r="BC6" s="3" t="n">
-        <v>34.817724803832</v>
+        <v>30.6068270696476</v>
       </c>
       <c r="BD6" s="3" t="n">
-        <v>34.9919187967925</v>
+        <v>30.3397556437584</v>
       </c>
       <c r="BE6" s="3" t="n">
-        <v>34.9361883679729</v>
+        <v>32.2337977654315</v>
       </c>
       <c r="BF6" s="3" t="n">
-        <v>36.5195837744566</v>
+        <v>31.9537681229642</v>
       </c>
       <c r="BG6" s="3" t="n">
-        <v>31.0088544250376</v>
+        <v>34.5866586203514</v>
       </c>
       <c r="BH6" s="3" t="n">
-        <v>31.5345600359099</v>
+        <v>32.5722819208678</v>
       </c>
       <c r="BI6" s="3" t="n">
-        <v>32.5556402261055</v>
+        <v>31.2286981932758</v>
       </c>
       <c r="BJ6" s="3" t="n">
-        <v>32.3114754598908</v>
+        <v>32.247307187282</v>
       </c>
       <c r="BK6" s="3" t="n">
-        <v>33.398361647695</v>
+        <v>32.1052696673696</v>
       </c>
       <c r="BL6" s="3" t="n">
-        <v>34.9087042542834</v>
+        <v>32.6852709063119</v>
       </c>
       <c r="BM6" s="3" t="n">
-        <v>33.8652528624607</v>
+        <v>32.4810056665341</v>
       </c>
       <c r="BN6" s="3" t="n">
-        <v>32.9775912468007</v>
+        <v>32.0854157168011</v>
       </c>
       <c r="BO6" s="3" t="n">
-        <v>33.8101326215547</v>
+        <v>32.0974424197749</v>
       </c>
       <c r="BP6" s="3" t="n">
-        <v>30.5465414906861</v>
+        <v>31.2192389859242</v>
       </c>
       <c r="BQ6" s="3" t="n">
-        <v>34.1341924229501</v>
+        <v>31.7012308474613</v>
       </c>
       <c r="BR6" s="3" t="n">
-        <v>32.8118504855104</v>
+        <v>32.5391831751511</v>
       </c>
       <c r="BS6" s="3" t="n">
-        <v>33.2238416740344</v>
+        <v>32.307669216219</v>
       </c>
       <c r="BT6" s="3" t="n">
-        <v>33.8075289320944</v>
+        <v>31.04578829336</v>
       </c>
       <c r="BU6" s="3" t="n">
-        <v>32.6204456821596</v>
+        <v>32.6905041681897</v>
       </c>
       <c r="BV6" s="3" t="n">
-        <v>32.781034818355</v>
+        <v>31.7690649667201</v>
       </c>
       <c r="BW6" s="3" t="n">
-        <v>31.5454263398279</v>
+        <v>33.6093518462869</v>
       </c>
       <c r="BX6" s="3" t="n">
-        <v>34.7703637144625</v>
+        <v>28.5189702288837</v>
       </c>
       <c r="BY6" s="3" t="n">
-        <v>33.0960281393539</v>
+        <v>28.6139204741739</v>
       </c>
       <c r="BZ6" s="3" t="n">
-        <v>32.2615396778172</v>
+        <v>29.057473489996</v>
       </c>
       <c r="CA6" s="3" t="n">
-        <v>33.1006066742554</v>
+        <v>33.2512180843969</v>
       </c>
       <c r="CB6" s="3" t="n">
-        <v>35.2828751268578</v>
+        <v>31.6068530152354</v>
       </c>
       <c r="CC6" s="3" t="n">
-        <v>32.3957515851765</v>
+        <v>33.8320939302607</v>
       </c>
       <c r="CD6" s="3" t="n">
-        <v>32.5350292800086</v>
+        <v>29.7263105608768</v>
       </c>
       <c r="CE6" s="3" t="n">
-        <v>33.140016884273</v>
+        <v>31.3818680016151</v>
       </c>
       <c r="CF6" s="3" t="n">
-        <v>33.2934789437841</v>
+        <v>30.845569048075</v>
       </c>
       <c r="CG6" s="3" t="n">
-        <v>32.8028305476434</v>
+        <v>31.5235504499456</v>
       </c>
       <c r="CH6" s="3" t="n">
-        <v>34.4352831333685</v>
+        <v>32.047600234089</v>
       </c>
       <c r="CI6" s="3" t="n">
-        <v>33.765871338505</v>
+        <v>30.4421338399929</v>
       </c>
       <c r="CJ6" s="3" t="n">
-        <v>33.24286155573</v>
+        <v>29.3358798993813</v>
       </c>
       <c r="CK6" s="3" t="n">
-        <v>31.3763293043807</v>
+        <v>31.5888063679191</v>
       </c>
       <c r="CL6" s="3" t="n">
-        <v>32.0766886459482</v>
+        <v>29.3396121214214</v>
       </c>
       <c r="CM6" s="3" t="n">
-        <v>34.1202135252225</v>
+        <v>32.723609720723</v>
       </c>
       <c r="CN6" s="3" t="n">
-        <v>33.8626349986914</v>
+        <v>30.5917273199361</v>
       </c>
       <c r="CO6" s="3" t="n">
-        <v>31.7506953610828</v>
+        <v>32.05693000895</v>
       </c>
       <c r="CP6" s="3" t="n">
-        <v>33.1503773936421</v>
+        <v>28.8710126175971</v>
       </c>
       <c r="CQ6" s="3" t="n">
-        <v>32.9392795385361</v>
+        <v>31.7971869940623</v>
       </c>
       <c r="CR6" s="3" t="n">
-        <v>31.3819442777152</v>
+        <v>29.5567502997352</v>
       </c>
       <c r="CS6" s="3" t="n">
-        <v>33.9240483831656</v>
+        <v>30.6578659665243</v>
       </c>
       <c r="CT6" s="3" t="n">
-        <v>31.9863951097948</v>
+        <v>33.6213173598613</v>
       </c>
       <c r="CU6" s="3" t="n">
-        <v>30.781512850739</v>
+        <v>30.250162908593</v>
       </c>
       <c r="CV6" s="3" t="n">
-        <v>34.5828324625199</v>
+        <v>33.8888231061546</v>
       </c>
       <c r="CW6" s="3" t="n">
-        <v>31.490289465974</v>
+        <v>30.3660837194847</v>
       </c>
       <c r="CX6" s="4" t="n">
         <v>32.8508579035847</v>
@@ -4864,304 +4864,304 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>32.9478297170779</v>
+        <v>35.462485894569</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>34.7946710211376</v>
+        <v>30.719911259235</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>33.1217034052752</v>
+        <v>32.6402710534635</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>34.2073172547378</v>
+        <v>33.7566631185763</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>32.6223384630714</v>
+        <v>33.2557026159028</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>32.4057948891069</v>
+        <v>32.206768998879</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>32.7855394868222</v>
+        <v>32.660297923584</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>34.0997003472557</v>
+        <v>34.1696939023633</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>34.721502616489</v>
+        <v>31.7759376913523</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>33.7955119630296</v>
+        <v>33.3694473407358</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>32.0080490194781</v>
+        <v>33.0509460552249</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>34.0865658072278</v>
+        <v>30.5112268668771</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>33.6906429909404</v>
+        <v>29.7795718942949</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>32.6762800126446</v>
+        <v>33.0490647494468</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>34.1299129102609</v>
+        <v>32.50265505587</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>29.9374238205895</v>
+        <v>33.9882145711051</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>33.9521190185148</v>
+        <v>33.832608205603</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>34.2013574767795</v>
+        <v>31.1921309499454</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>34.3804233585727</v>
+        <v>31.4762262289828</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>34.4845405724606</v>
+        <v>32.4859578836622</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>29.5838171366715</v>
+        <v>32.9740650558037</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>33.7323440575078</v>
+        <v>32.1202779107729</v>
       </c>
       <c r="X7" s="3" t="n">
-        <v>34.3973051597588</v>
+        <v>31.7147719303509</v>
       </c>
       <c r="Y7" s="3" t="n">
-        <v>36.5523588519002</v>
+        <v>31.7849012395229</v>
       </c>
       <c r="Z7" s="3" t="n">
-        <v>37.347429542055</v>
+        <v>34.7164907161994</v>
       </c>
       <c r="AA7" s="3" t="n">
-        <v>33.2923523280209</v>
+        <v>33.0963901680072</v>
       </c>
       <c r="AB7" s="3" t="n">
-        <v>34.5898470405903</v>
+        <v>33.8420472250027</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>34.2836190032913</v>
+        <v>32.729030589325</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>35.5553448139933</v>
+        <v>34.1645705403642</v>
       </c>
       <c r="AE7" s="3" t="n">
-        <v>34.4760346172276</v>
+        <v>31.0585165767463</v>
       </c>
       <c r="AF7" s="3" t="n">
-        <v>33.4273022748404</v>
+        <v>34.7552270400126</v>
       </c>
       <c r="AG7" s="3" t="n">
-        <v>33.2763989206691</v>
+        <v>35.3703997889069</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>33.3014176531805</v>
+        <v>32.9026722274964</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>35.2129322684853</v>
+        <v>33.2949922258037</v>
       </c>
       <c r="AJ7" s="3" t="n">
-        <v>35.7983505201149</v>
+        <v>35.3329454763096</v>
       </c>
       <c r="AK7" s="3" t="n">
-        <v>32.3446443039609</v>
+        <v>30.0967012671323</v>
       </c>
       <c r="AL7" s="3" t="n">
-        <v>34.6589730234651</v>
+        <v>33.1406237118877</v>
       </c>
       <c r="AM7" s="3" t="n">
-        <v>32.4306007388994</v>
+        <v>32.96172168013</v>
       </c>
       <c r="AN7" s="3" t="n">
-        <v>34.3047857196774</v>
+        <v>31.0519668646875</v>
       </c>
       <c r="AO7" s="3" t="n">
-        <v>32.7713106025896</v>
+        <v>30.6933035393325</v>
       </c>
       <c r="AP7" s="3" t="n">
-        <v>32.5861173183476</v>
+        <v>34.8181574785953</v>
       </c>
       <c r="AQ7" s="3" t="n">
-        <v>33.5245400395939</v>
+        <v>32.385868918709</v>
       </c>
       <c r="AR7" s="3" t="n">
-        <v>32.4844004059038</v>
+        <v>34.6465680152418</v>
       </c>
       <c r="AS7" s="3" t="n">
-        <v>32.1492843064566</v>
+        <v>32.6271214712195</v>
       </c>
       <c r="AT7" s="3" t="n">
-        <v>32.6170887587034</v>
+        <v>34.5538704624675</v>
       </c>
       <c r="AU7" s="3" t="n">
-        <v>32.5679408634468</v>
+        <v>35.0612156336447</v>
       </c>
       <c r="AV7" s="3" t="n">
-        <v>33.1974907875872</v>
+        <v>32.2696230622223</v>
       </c>
       <c r="AW7" s="3" t="n">
-        <v>34.233130073861</v>
+        <v>32.5975713495117</v>
       </c>
       <c r="AX7" s="3" t="n">
-        <v>34.2004053314459</v>
+        <v>32.5104647746266</v>
       </c>
       <c r="AY7" s="3" t="n">
-        <v>32.1597979719744</v>
+        <v>34.4277989328012</v>
       </c>
       <c r="AZ7" s="3" t="n">
-        <v>33.1302048503415</v>
+        <v>31.8779553174665</v>
       </c>
       <c r="BA7" s="3" t="n">
-        <v>34.9555475427033</v>
+        <v>32.8953951473725</v>
       </c>
       <c r="BB7" s="3" t="n">
-        <v>30.9216829322743</v>
+        <v>33.2341591383903</v>
       </c>
       <c r="BC7" s="3" t="n">
-        <v>33.6097710941597</v>
+        <v>34.9646273500816</v>
       </c>
       <c r="BD7" s="3" t="n">
-        <v>33.8418771440417</v>
+        <v>32.6919867920762</v>
       </c>
       <c r="BE7" s="3" t="n">
-        <v>33.9910829728909</v>
+        <v>33.4426309585405</v>
       </c>
       <c r="BF7" s="3" t="n">
-        <v>34.3903790876748</v>
+        <v>33.8930633287151</v>
       </c>
       <c r="BG7" s="3" t="n">
-        <v>31.3319095625759</v>
+        <v>32.4986816361787</v>
       </c>
       <c r="BH7" s="3" t="n">
-        <v>34.6819506618164</v>
+        <v>32.0375765346592</v>
       </c>
       <c r="BI7" s="3" t="n">
-        <v>29.9925204734021</v>
+        <v>33.7687465511694</v>
       </c>
       <c r="BJ7" s="3" t="n">
-        <v>32.5408648546503</v>
+        <v>32.3912053475168</v>
       </c>
       <c r="BK7" s="3" t="n">
-        <v>33.1424620529398</v>
+        <v>30.9821288660831</v>
       </c>
       <c r="BL7" s="3" t="n">
-        <v>34.9607222578558</v>
+        <v>32.9959420520195</v>
       </c>
       <c r="BM7" s="3" t="n">
-        <v>31.3444716405819</v>
+        <v>34.2188109336141</v>
       </c>
       <c r="BN7" s="3" t="n">
-        <v>32.1488345975626</v>
+        <v>34.7438249444119</v>
       </c>
       <c r="BO7" s="3" t="n">
-        <v>35.091100298195</v>
+        <v>35.2669402759588</v>
       </c>
       <c r="BP7" s="3" t="n">
-        <v>32.8722347955222</v>
+        <v>30.8945433372031</v>
       </c>
       <c r="BQ7" s="3" t="n">
-        <v>33.2794199863119</v>
+        <v>33.1454819017969</v>
       </c>
       <c r="BR7" s="3" t="n">
-        <v>30.5406321055075</v>
+        <v>34.99943687197</v>
       </c>
       <c r="BS7" s="3" t="n">
-        <v>33.8942082775542</v>
+        <v>31.3198186322081</v>
       </c>
       <c r="BT7" s="3" t="n">
-        <v>35.0614953613659</v>
+        <v>31.2583174097681</v>
       </c>
       <c r="BU7" s="3" t="n">
-        <v>33.3925465172176</v>
+        <v>33.450047070547</v>
       </c>
       <c r="BV7" s="3" t="n">
-        <v>31.1629311186383</v>
+        <v>32.1581477158435</v>
       </c>
       <c r="BW7" s="3" t="n">
-        <v>33.9302292674362</v>
+        <v>34.3401439002494</v>
       </c>
       <c r="BX7" s="3" t="n">
-        <v>34.0500657194639</v>
+        <v>30.8349401106823</v>
       </c>
       <c r="BY7" s="3" t="n">
-        <v>35.9936800377205</v>
+        <v>33.6055745275087</v>
       </c>
       <c r="BZ7" s="3" t="n">
-        <v>35.196892304598</v>
+        <v>33.7472824572729</v>
       </c>
       <c r="CA7" s="3" t="n">
-        <v>32.5332737126783</v>
+        <v>36.1358394380901</v>
       </c>
       <c r="CB7" s="3" t="n">
-        <v>35.3218726777344</v>
+        <v>32.2034280359687</v>
       </c>
       <c r="CC7" s="3" t="n">
-        <v>30.7454277272807</v>
+        <v>34.4850113349313</v>
       </c>
       <c r="CD7" s="3" t="n">
-        <v>36.0260295540497</v>
+        <v>29.5763841439955</v>
       </c>
       <c r="CE7" s="3" t="n">
-        <v>32.5309987081959</v>
+        <v>30.6468054022258</v>
       </c>
       <c r="CF7" s="3" t="n">
-        <v>34.4962474142938</v>
+        <v>29.9292817379156</v>
       </c>
       <c r="CG7" s="3" t="n">
-        <v>34.9566826476467</v>
+        <v>30.4423272858231</v>
       </c>
       <c r="CH7" s="3" t="n">
-        <v>33.2294317820458</v>
+        <v>35.4061350348667</v>
       </c>
       <c r="CI7" s="3" t="n">
-        <v>33.1047663880986</v>
+        <v>35.1778823279923</v>
       </c>
       <c r="CJ7" s="3" t="n">
-        <v>32.550146523096</v>
+        <v>32.0443593740708</v>
       </c>
       <c r="CK7" s="3" t="n">
-        <v>31.2790214859403</v>
+        <v>28.7164725288817</v>
       </c>
       <c r="CL7" s="3" t="n">
-        <v>32.8411988511204</v>
+        <v>32.3074815344592</v>
       </c>
       <c r="CM7" s="3" t="n">
-        <v>33.4775276359152</v>
+        <v>35.1970348279888</v>
       </c>
       <c r="CN7" s="3" t="n">
-        <v>34.2271417911259</v>
+        <v>33.8981529552784</v>
       </c>
       <c r="CO7" s="3" t="n">
-        <v>34.5724393328819</v>
+        <v>31.5352822902538</v>
       </c>
       <c r="CP7" s="3" t="n">
-        <v>30.791079833089</v>
+        <v>32.6441809016294</v>
       </c>
       <c r="CQ7" s="3" t="n">
-        <v>34.5498472590025</v>
+        <v>34.1893572478829</v>
       </c>
       <c r="CR7" s="3" t="n">
-        <v>31.9979923606175</v>
+        <v>32.4837152562028</v>
       </c>
       <c r="CS7" s="3" t="n">
-        <v>34.898309330486</v>
+        <v>33.12203434387</v>
       </c>
       <c r="CT7" s="3" t="n">
-        <v>32.407691362253</v>
+        <v>33.4035122014904</v>
       </c>
       <c r="CU7" s="3" t="n">
-        <v>33.6215136047398</v>
+        <v>31.693322486757</v>
       </c>
       <c r="CV7" s="3" t="n">
-        <v>32.9040211938048</v>
+        <v>34.7044813270828</v>
       </c>
       <c r="CW7" s="3" t="n">
-        <v>33.3956838254352</v>
+        <v>33.9551129233102</v>
       </c>
       <c r="CX7" s="4" t="n">
         <v>33.1197432939479</v>
@@ -5172,304 +5172,304 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>33.943707502201</v>
+        <v>33.5125971263718</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>34.2762548507737</v>
+        <v>33.3513672911898</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>32.8811296206361</v>
+        <v>34.1443331731764</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>32.6004116789233</v>
+        <v>34.0597936080231</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>31.4310845334428</v>
+        <v>35.4595139796229</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>34.337224828177</v>
+        <v>31.0979379739927</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>32.6899167211322</v>
+        <v>34.3801475048611</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>35.4278436975744</v>
+        <v>33.0127982686524</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>32.9104849327303</v>
+        <v>31.584859764761</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>32.6544146959125</v>
+        <v>34.9239805678349</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>33.0491064218299</v>
+        <v>34.0388329757426</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>33.6867420713838</v>
+        <v>30.7602641544013</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>32.8417108667333</v>
+        <v>33.0347172735238</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>35.728260592111</v>
+        <v>31.3670408154199</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>34.1925700833502</v>
+        <v>33.8783296680564</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>33.2604727902994</v>
+        <v>33.001026428526</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>32.656665377856</v>
+        <v>35.0297708921715</v>
       </c>
       <c r="S8" s="3" t="n">
-        <v>36.9766080273848</v>
+        <v>32.3797828052784</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>33.3602656532134</v>
+        <v>31.6365024018075</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>36.4334406655171</v>
+        <v>32.9778443397073</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>33.0512249768801</v>
+        <v>34.3342773745404</v>
       </c>
       <c r="W8" s="3" t="n">
-        <v>33.4692693223247</v>
+        <v>33.3651017008097</v>
       </c>
       <c r="X8" s="3" t="n">
-        <v>35.3189878075869</v>
+        <v>32.3821469604476</v>
       </c>
       <c r="Y8" s="3" t="n">
-        <v>32.2651286810162</v>
+        <v>34.7927872900285</v>
       </c>
       <c r="Z8" s="3" t="n">
-        <v>33.7047005555205</v>
+        <v>33.4873636675158</v>
       </c>
       <c r="AA8" s="3" t="n">
-        <v>32.3492095921867</v>
+        <v>35.2986896136285</v>
       </c>
       <c r="AB8" s="3" t="n">
-        <v>35.8658997872525</v>
+        <v>34.969059774755</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.7508460244551</v>
+        <v>32.0346781193498</v>
       </c>
       <c r="AD8" s="3" t="n">
-        <v>37.0419316757881</v>
+        <v>31.9507287043532</v>
       </c>
       <c r="AE8" s="3" t="n">
-        <v>34.5291224317831</v>
+        <v>33.9138316532566</v>
       </c>
       <c r="AF8" s="3" t="n">
-        <v>32.5980253086081</v>
+        <v>32.4083959112181</v>
       </c>
       <c r="AG8" s="3" t="n">
-        <v>35.0336336827195</v>
+        <v>36.5369965108636</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>33.6987994778314</v>
+        <v>32.5640523138607</v>
       </c>
       <c r="AI8" s="3" t="n">
-        <v>32.0821404530651</v>
+        <v>33.4841170186443</v>
       </c>
       <c r="AJ8" s="3" t="n">
-        <v>33.3736093371398</v>
+        <v>34.0829491697564</v>
       </c>
       <c r="AK8" s="3" t="n">
-        <v>34.1847925816803</v>
+        <v>31.9919163221245</v>
       </c>
       <c r="AL8" s="3" t="n">
-        <v>33.6762888770165</v>
+        <v>30.5223354694827</v>
       </c>
       <c r="AM8" s="3" t="n">
-        <v>32.1761379956918</v>
+        <v>33.1653618498168</v>
       </c>
       <c r="AN8" s="3" t="n">
-        <v>30.9463294986799</v>
+        <v>34.4952975666097</v>
       </c>
       <c r="AO8" s="3" t="n">
-        <v>35.0607956497037</v>
+        <v>33.8013675233851</v>
       </c>
       <c r="AP8" s="3" t="n">
-        <v>34.1062841961698</v>
+        <v>35.8953753484495</v>
       </c>
       <c r="AQ8" s="3" t="n">
-        <v>32.6169548586381</v>
+        <v>33.79878184251</v>
       </c>
       <c r="AR8" s="3" t="n">
-        <v>33.1427536454016</v>
+        <v>33.5222582721366</v>
       </c>
       <c r="AS8" s="3" t="n">
-        <v>33.6468798472589</v>
+        <v>32.7607374396576</v>
       </c>
       <c r="AT8" s="3" t="n">
-        <v>33.2780683821015</v>
+        <v>31.9325268045189</v>
       </c>
       <c r="AU8" s="3" t="n">
-        <v>30.5112389864382</v>
+        <v>33.6629699246714</v>
       </c>
       <c r="AV8" s="3" t="n">
-        <v>35.2930230191588</v>
+        <v>30.747266228801</v>
       </c>
       <c r="AW8" s="3" t="n">
-        <v>34.8325237850338</v>
+        <v>33.2351249415987</v>
       </c>
       <c r="AX8" s="3" t="n">
-        <v>32.7892034110919</v>
+        <v>35.3733972885723</v>
       </c>
       <c r="AY8" s="3" t="n">
-        <v>36.7732558908694</v>
+        <v>32.3904364614915</v>
       </c>
       <c r="AZ8" s="3" t="n">
-        <v>32.8919678491964</v>
+        <v>33.0704919502771</v>
       </c>
       <c r="BA8" s="3" t="n">
-        <v>33.7209883227475</v>
+        <v>34.3176609179876</v>
       </c>
       <c r="BB8" s="3" t="n">
-        <v>32.2727540691793</v>
+        <v>35.9485110943449</v>
       </c>
       <c r="BC8" s="3" t="n">
-        <v>32.0207183629099</v>
+        <v>32.4161149757339</v>
       </c>
       <c r="BD8" s="3" t="n">
-        <v>35.8936734144872</v>
+        <v>33.4002512002458</v>
       </c>
       <c r="BE8" s="3" t="n">
-        <v>31.7454821433018</v>
+        <v>30.9847255955466</v>
       </c>
       <c r="BF8" s="3" t="n">
-        <v>32.33192523431</v>
+        <v>35.4469935836211</v>
       </c>
       <c r="BG8" s="3" t="n">
-        <v>33.9435820209443</v>
+        <v>37.3232121461633</v>
       </c>
       <c r="BH8" s="3" t="n">
-        <v>34.2321493447995</v>
+        <v>31.9515875533806</v>
       </c>
       <c r="BI8" s="3" t="n">
-        <v>33.0270715831501</v>
+        <v>33.3313041897236</v>
       </c>
       <c r="BJ8" s="3" t="n">
-        <v>33.7245162008479</v>
+        <v>34.4994584712067</v>
       </c>
       <c r="BK8" s="3" t="n">
-        <v>31.5325093295171</v>
+        <v>31.1964655038814</v>
       </c>
       <c r="BL8" s="3" t="n">
-        <v>34.8552391765221</v>
+        <v>34.7801269529526</v>
       </c>
       <c r="BM8" s="3" t="n">
-        <v>36.0966047572752</v>
+        <v>32.6593111792455</v>
       </c>
       <c r="BN8" s="3" t="n">
-        <v>32.689071375827</v>
+        <v>33.1730500895554</v>
       </c>
       <c r="BO8" s="3" t="n">
-        <v>32.7920151776734</v>
+        <v>33.3102524001319</v>
       </c>
       <c r="BP8" s="3" t="n">
-        <v>33.1410907360894</v>
+        <v>32.7074329860376</v>
       </c>
       <c r="BQ8" s="3" t="n">
-        <v>33.9301930531767</v>
+        <v>35.6285991590983</v>
       </c>
       <c r="BR8" s="3" t="n">
-        <v>33.2575192513291</v>
+        <v>35.6745854918884</v>
       </c>
       <c r="BS8" s="3" t="n">
-        <v>34.8207258981947</v>
+        <v>34.7034138872763</v>
       </c>
       <c r="BT8" s="3" t="n">
-        <v>35.3130887103652</v>
+        <v>31.906662585169</v>
       </c>
       <c r="BU8" s="3" t="n">
-        <v>34.5036528584565</v>
+        <v>34.3694109366653</v>
       </c>
       <c r="BV8" s="3" t="n">
-        <v>33.3533511737322</v>
+        <v>32.7656952931254</v>
       </c>
       <c r="BW8" s="3" t="n">
-        <v>31.7788831197084</v>
+        <v>35.7858369320327</v>
       </c>
       <c r="BX8" s="3" t="n">
-        <v>36.0684714387359</v>
+        <v>29.4112402308934</v>
       </c>
       <c r="BY8" s="3" t="n">
-        <v>34.0020254892185</v>
+        <v>32.0375073353466</v>
       </c>
       <c r="BZ8" s="3" t="n">
-        <v>35.2102453819276</v>
+        <v>31.5564261304178</v>
       </c>
       <c r="CA8" s="3" t="n">
-        <v>31.2448404525193</v>
+        <v>32.3263602364962</v>
       </c>
       <c r="CB8" s="3" t="n">
-        <v>35.2803847741586</v>
+        <v>31.2250835210112</v>
       </c>
       <c r="CC8" s="3" t="n">
-        <v>31.2896203090708</v>
+        <v>34.9013729060158</v>
       </c>
       <c r="CD8" s="3" t="n">
-        <v>35.8309358232849</v>
+        <v>34.5772083143447</v>
       </c>
       <c r="CE8" s="3" t="n">
-        <v>35.4117100261519</v>
+        <v>33.6949524970914</v>
       </c>
       <c r="CF8" s="3" t="n">
-        <v>33.7121139168258</v>
+        <v>35.1766537014361</v>
       </c>
       <c r="CG8" s="3" t="n">
-        <v>34.3892753159429</v>
+        <v>34.177575690116</v>
       </c>
       <c r="CH8" s="3" t="n">
-        <v>33.0350758837218</v>
+        <v>32.8788021611275</v>
       </c>
       <c r="CI8" s="3" t="n">
-        <v>32.6938594925434</v>
+        <v>34.8809781084991</v>
       </c>
       <c r="CJ8" s="3" t="n">
-        <v>34.0416746407701</v>
+        <v>30.8934697073943</v>
       </c>
       <c r="CK8" s="3" t="n">
-        <v>33.1011145541868</v>
+        <v>32.5520322790773</v>
       </c>
       <c r="CL8" s="3" t="n">
-        <v>31.7627463453643</v>
+        <v>32.3400719359857</v>
       </c>
       <c r="CM8" s="3" t="n">
-        <v>32.6154784967644</v>
+        <v>34.2054953538709</v>
       </c>
       <c r="CN8" s="3" t="n">
-        <v>33.0798192323831</v>
+        <v>33.1387875142275</v>
       </c>
       <c r="CO8" s="3" t="n">
-        <v>32.2120307924382</v>
+        <v>30.3892911955677</v>
       </c>
       <c r="CP8" s="3" t="n">
-        <v>30.8229319929961</v>
+        <v>32.7061145636332</v>
       </c>
       <c r="CQ8" s="3" t="n">
-        <v>33.6578728143042</v>
+        <v>34.3179198225073</v>
       </c>
       <c r="CR8" s="3" t="n">
-        <v>33.9236039576282</v>
+        <v>31.3879906826406</v>
       </c>
       <c r="CS8" s="3" t="n">
-        <v>35.7248102876847</v>
+        <v>32.1211440226773</v>
       </c>
       <c r="CT8" s="3" t="n">
-        <v>34.0548774740232</v>
+        <v>30.942429973162</v>
       </c>
       <c r="CU8" s="3" t="n">
-        <v>33.5254170221286</v>
+        <v>33.6978439507511</v>
       </c>
       <c r="CV8" s="3" t="n">
-        <v>34.0365655566118</v>
+        <v>35.0896353409796</v>
       </c>
       <c r="CW8" s="3" t="n">
-        <v>32.4652252608623</v>
+        <v>32.3050484174215</v>
       </c>
       <c r="CX8" s="4" t="n">
         <v>33.259378944769</v>
@@ -5480,304 +5480,304 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>33.6030188584685</v>
+        <v>34.6285246202817</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>36.1356116021701</v>
+        <v>32.532775708286</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>33.8367064861266</v>
+        <v>31.9727071333731</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>36.5184122206215</v>
+        <v>31.2656712831353</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>35.6965220767544</v>
+        <v>34.0494442556113</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>29.3329162221669</v>
+        <v>33.3896476115257</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>33.4282374375861</v>
+        <v>32.9003103992573</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>34.7794601038456</v>
+        <v>32.4649869258024</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>33.2999529563372</v>
+        <v>33.023240975023</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>31.555681420642</v>
+        <v>32.2896575550842</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>34.4988231072484</v>
+        <v>34.5643446385636</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>33.097568489634</v>
+        <v>33.1137875065481</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>35.1780296447769</v>
+        <v>31.6281709078139</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>35.4595999843828</v>
+        <v>31.8696009885493</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>32.3623857222643</v>
+        <v>29.6598419039186</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>33.3365409277516</v>
+        <v>34.3836659897315</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>30.7702732359985</v>
+        <v>31.5457798796542</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>34.048255958178</v>
+        <v>33.8861739479603</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>35.8864374317115</v>
+        <v>32.2968074258153</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>34.6428532887684</v>
+        <v>34.6321894131764</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>31.3641428198174</v>
+        <v>32.4343537100918</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>34.6064361234881</v>
+        <v>34.2349983901628</v>
       </c>
       <c r="X9" s="3" t="n">
-        <v>36.9791926360051</v>
+        <v>33.4527638210965</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>34.2476944267522</v>
+        <v>32.4397338906009</v>
       </c>
       <c r="Z9" s="3" t="n">
-        <v>34.6433867121333</v>
+        <v>31.9344151650364</v>
       </c>
       <c r="AA9" s="3" t="n">
-        <v>34.040651405671</v>
+        <v>31.8312317723436</v>
       </c>
       <c r="AB9" s="3" t="n">
-        <v>34.5291025581363</v>
+        <v>33.0935017252408</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>35.2158497449864</v>
+        <v>34.5271584013806</v>
       </c>
       <c r="AD9" s="3" t="n">
-        <v>34.1100363478198</v>
+        <v>34.5365405376176</v>
       </c>
       <c r="AE9" s="3" t="n">
-        <v>33.5418891393948</v>
+        <v>34.5119435031553</v>
       </c>
       <c r="AF9" s="3" t="n">
-        <v>35.4309387689379</v>
+        <v>35.9083980896163</v>
       </c>
       <c r="AG9" s="3" t="n">
-        <v>34.6238433725106</v>
+        <v>32.4550150904716</v>
       </c>
       <c r="AH9" s="3" t="n">
-        <v>32.8741140070035</v>
+        <v>33.0530115733963</v>
       </c>
       <c r="AI9" s="3" t="n">
-        <v>35.2635723364452</v>
+        <v>31.937867589914</v>
       </c>
       <c r="AJ9" s="3" t="n">
-        <v>34.6292700866927</v>
+        <v>32.6911076990393</v>
       </c>
       <c r="AK9" s="3" t="n">
-        <v>34.1119872656585</v>
+        <v>34.8902386717698</v>
       </c>
       <c r="AL9" s="3" t="n">
-        <v>35.8478498057143</v>
+        <v>33.1143214162364</v>
       </c>
       <c r="AM9" s="3" t="n">
-        <v>34.4719150484933</v>
+        <v>32.1893604142546</v>
       </c>
       <c r="AN9" s="3" t="n">
-        <v>31.5837907033281</v>
+        <v>31.2093692130472</v>
       </c>
       <c r="AO9" s="3" t="n">
-        <v>34.1762580387875</v>
+        <v>30.6421740653725</v>
       </c>
       <c r="AP9" s="3" t="n">
-        <v>31.2057498145942</v>
+        <v>34.6001646751561</v>
       </c>
       <c r="AQ9" s="3" t="n">
-        <v>31.2704743482871</v>
+        <v>31.270852613179</v>
       </c>
       <c r="AR9" s="3" t="n">
-        <v>32.235197471372</v>
+        <v>32.8880231380434</v>
       </c>
       <c r="AS9" s="3" t="n">
-        <v>32.1261311597962</v>
+        <v>32.9111136497956</v>
       </c>
       <c r="AT9" s="3" t="n">
-        <v>34.3476017286606</v>
+        <v>33.9614882850852</v>
       </c>
       <c r="AU9" s="3" t="n">
-        <v>32.8646685181582</v>
+        <v>35.3084579429109</v>
       </c>
       <c r="AV9" s="3" t="n">
-        <v>35.7795350129179</v>
+        <v>33.0643374251672</v>
       </c>
       <c r="AW9" s="3" t="n">
-        <v>34.9562697507123</v>
+        <v>34.2549090617658</v>
       </c>
       <c r="AX9" s="3" t="n">
-        <v>32.7487096027955</v>
+        <v>36.5803624658448</v>
       </c>
       <c r="AY9" s="3" t="n">
-        <v>33.1715867765591</v>
+        <v>33.9112506146369</v>
       </c>
       <c r="AZ9" s="3" t="n">
-        <v>30.7161397727894</v>
+        <v>32.1813696932335</v>
       </c>
       <c r="BA9" s="3" t="n">
-        <v>34.8382967629968</v>
+        <v>34.6901173199704</v>
       </c>
       <c r="BB9" s="3" t="n">
-        <v>33.4785485380696</v>
+        <v>35.7762486571514</v>
       </c>
       <c r="BC9" s="3" t="n">
-        <v>31.7811448630813</v>
+        <v>32.6438935525866</v>
       </c>
       <c r="BD9" s="3" t="n">
-        <v>34.6131338109057</v>
+        <v>34.4927521817797</v>
       </c>
       <c r="BE9" s="3" t="n">
-        <v>32.8137369765808</v>
+        <v>34.7768449509715</v>
       </c>
       <c r="BF9" s="3" t="n">
-        <v>35.0389953819068</v>
+        <v>33.6253265556031</v>
       </c>
       <c r="BG9" s="3" t="n">
-        <v>33.8720574105221</v>
+        <v>32.3024808817523</v>
       </c>
       <c r="BH9" s="3" t="n">
-        <v>34.2386344505566</v>
+        <v>34.2610795257594</v>
       </c>
       <c r="BI9" s="3" t="n">
-        <v>33.4182626536485</v>
+        <v>33.5865957734327</v>
       </c>
       <c r="BJ9" s="3" t="n">
-        <v>35.3403219240411</v>
+        <v>34.1261420982773</v>
       </c>
       <c r="BK9" s="3" t="n">
-        <v>37.167318952672</v>
+        <v>31.0213286653677</v>
       </c>
       <c r="BL9" s="3" t="n">
-        <v>34.3181082583059</v>
+        <v>30.2285261441342</v>
       </c>
       <c r="BM9" s="3" t="n">
-        <v>36.5931203496485</v>
+        <v>33.656993510909</v>
       </c>
       <c r="BN9" s="3" t="n">
-        <v>34.6585623652014</v>
+        <v>30.6618855251477</v>
       </c>
       <c r="BO9" s="3" t="n">
-        <v>32.0410252510166</v>
+        <v>33.197332898578</v>
       </c>
       <c r="BP9" s="3" t="n">
-        <v>35.3369671158651</v>
+        <v>33.1079757401215</v>
       </c>
       <c r="BQ9" s="3" t="n">
-        <v>35.1195008841201</v>
+        <v>31.4580918157518</v>
       </c>
       <c r="BR9" s="3" t="n">
-        <v>33.689055753273</v>
+        <v>32.0245199208442</v>
       </c>
       <c r="BS9" s="3" t="n">
-        <v>33.5128060921524</v>
+        <v>33.2781836991317</v>
       </c>
       <c r="BT9" s="3" t="n">
-        <v>35.086654122974</v>
+        <v>31.8446602984554</v>
       </c>
       <c r="BU9" s="3" t="n">
-        <v>36.3278842294681</v>
+        <v>31.2049517815902</v>
       </c>
       <c r="BV9" s="3" t="n">
-        <v>35.6463598112826</v>
+        <v>31.996337936064</v>
       </c>
       <c r="BW9" s="3" t="n">
-        <v>32.9029886553167</v>
+        <v>33.2570393103951</v>
       </c>
       <c r="BX9" s="3" t="n">
-        <v>33.5794178182206</v>
+        <v>32.0044795557155</v>
       </c>
       <c r="BY9" s="3" t="n">
-        <v>31.2816366802218</v>
+        <v>32.4652812054808</v>
       </c>
       <c r="BZ9" s="3" t="n">
-        <v>33.4790379534256</v>
+        <v>31.5953444149306</v>
       </c>
       <c r="CA9" s="3" t="n">
-        <v>35.4173504577632</v>
+        <v>32.4474692520599</v>
       </c>
       <c r="CB9" s="3" t="n">
-        <v>31.3544855784289</v>
+        <v>34.2373801557578</v>
       </c>
       <c r="CC9" s="3" t="n">
-        <v>31.0725332172394</v>
+        <v>33.9509566427721</v>
       </c>
       <c r="CD9" s="3" t="n">
-        <v>32.9953900782605</v>
+        <v>32.1790356075858</v>
       </c>
       <c r="CE9" s="3" t="n">
-        <v>33.8325230924072</v>
+        <v>35.4417092353769</v>
       </c>
       <c r="CF9" s="3" t="n">
-        <v>34.5550931058283</v>
+        <v>33.6293377513133</v>
       </c>
       <c r="CG9" s="3" t="n">
-        <v>32.6184002135993</v>
+        <v>32.686453375883</v>
       </c>
       <c r="CH9" s="3" t="n">
-        <v>35.6366129246954</v>
+        <v>34.4885933737608</v>
       </c>
       <c r="CI9" s="3" t="n">
-        <v>33.6872011914105</v>
+        <v>33.689833549686</v>
       </c>
       <c r="CJ9" s="3" t="n">
-        <v>34.3895874553063</v>
+        <v>32.6859476068472</v>
       </c>
       <c r="CK9" s="3" t="n">
-        <v>33.7428121875267</v>
+        <v>33.3137841615402</v>
       </c>
       <c r="CL9" s="3" t="n">
-        <v>32.8580050543477</v>
+        <v>32.8284050420377</v>
       </c>
       <c r="CM9" s="3" t="n">
-        <v>35.8136323808624</v>
+        <v>33.0029273922349</v>
       </c>
       <c r="CN9" s="3" t="n">
-        <v>34.6352596967001</v>
+        <v>34.848481023812</v>
       </c>
       <c r="CO9" s="3" t="n">
-        <v>33.6450432644744</v>
+        <v>31.2108551871789</v>
       </c>
       <c r="CP9" s="3" t="n">
-        <v>32.5120173236961</v>
+        <v>33.9946013559853</v>
       </c>
       <c r="CQ9" s="3" t="n">
-        <v>34.302972066463</v>
+        <v>34.8207821354181</v>
       </c>
       <c r="CR9" s="3" t="n">
-        <v>34.1278397212337</v>
+        <v>31.8187934256072</v>
       </c>
       <c r="CS9" s="3" t="n">
-        <v>34.6907120403796</v>
+        <v>34.3905744955641</v>
       </c>
       <c r="CT9" s="3" t="n">
-        <v>33.6793095792352</v>
+        <v>33.1869221003764</v>
       </c>
       <c r="CU9" s="3" t="n">
-        <v>33.8636966769264</v>
+        <v>32.136656582472</v>
       </c>
       <c r="CV9" s="3" t="n">
-        <v>37.5856985772636</v>
+        <v>34.2896581575861</v>
       </c>
       <c r="CW9" s="3" t="n">
-        <v>33.4821495997994</v>
+        <v>31.648589315852</v>
       </c>
       <c r="CX9" s="4" t="n">
         <v>34.0476436362314</v>
@@ -5788,304 +5788,304 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>32.913624537208</v>
+        <v>33.2869238155111</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>33.3216655355407</v>
+        <v>33.2587155187239</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>34.8668133513719</v>
+        <v>34.0585886549299</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>34.8636123923899</v>
+        <v>31.9137110370524</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>34.5008731876609</v>
+        <v>34.9352237879805</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>32.3954363337874</v>
+        <v>31.6269454537895</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>34.0148869034541</v>
+        <v>32.9909307826761</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>34.7158678728338</v>
+        <v>32.9636607729626</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>35.4705878804488</v>
+        <v>31.7681837356139</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>35.4741759007373</v>
+        <v>32.4710098465565</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>34.8808978834705</v>
+        <v>33.8589730406672</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>36.1653784664177</v>
+        <v>31.9788669046989</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>34.081192744378</v>
+        <v>32.8042262889181</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>31.7395245791702</v>
+        <v>31.2366454512647</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>31.763386285716</v>
+        <v>33.1737611285631</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>32.2524426518221</v>
+        <v>34.9270555920607</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>34.6712691601598</v>
+        <v>32.7338412988788</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>33.3708239996927</v>
+        <v>31.5624745114525</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>35.7600265206165</v>
+        <v>31.1085628964115</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>33.8745030481987</v>
+        <v>33.3266099192587</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>34.9053630965878</v>
+        <v>31.449859462968</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>34.6742270359834</v>
+        <v>34.7194570202704</v>
       </c>
       <c r="X10" s="3" t="n">
-        <v>34.210158276217</v>
+        <v>32.6879660257104</v>
       </c>
       <c r="Y10" s="3" t="n">
-        <v>33.8792842811424</v>
+        <v>33.029898600966</v>
       </c>
       <c r="Z10" s="3" t="n">
-        <v>32.7254678736647</v>
+        <v>33.0173485873728</v>
       </c>
       <c r="AA10" s="3" t="n">
-        <v>33.7935165275439</v>
+        <v>34.1313525577966</v>
       </c>
       <c r="AB10" s="3" t="n">
-        <v>31.4437987348492</v>
+        <v>33.9747863069095</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>32.0200696247925</v>
+        <v>34.8051895156188</v>
       </c>
       <c r="AD10" s="3" t="n">
-        <v>36.9074900667345</v>
+        <v>33.0606267740932</v>
       </c>
       <c r="AE10" s="3" t="n">
-        <v>34.8482238899215</v>
+        <v>33.5776804477557</v>
       </c>
       <c r="AF10" s="3" t="n">
-        <v>34.8580712749404</v>
+        <v>32.8309323200592</v>
       </c>
       <c r="AG10" s="3" t="n">
-        <v>34.3937701490448</v>
+        <v>33.7354593244272</v>
       </c>
       <c r="AH10" s="3" t="n">
-        <v>31.8025049929453</v>
+        <v>33.8351252028815</v>
       </c>
       <c r="AI10" s="3" t="n">
-        <v>34.5527447341024</v>
+        <v>35.336101849032</v>
       </c>
       <c r="AJ10" s="3" t="n">
-        <v>34.1834754099852</v>
+        <v>34.2863553618184</v>
       </c>
       <c r="AK10" s="3" t="n">
-        <v>34.0505866884833</v>
+        <v>30.776725119275</v>
       </c>
       <c r="AL10" s="3" t="n">
-        <v>35.7558038162226</v>
+        <v>33.3702872143707</v>
       </c>
       <c r="AM10" s="3" t="n">
-        <v>32.0617719746902</v>
+        <v>35.7654768973187</v>
       </c>
       <c r="AN10" s="3" t="n">
-        <v>31.2673707410085</v>
+        <v>32.5905590146934</v>
       </c>
       <c r="AO10" s="3" t="n">
-        <v>33.3135703013338</v>
+        <v>31.631778556884</v>
       </c>
       <c r="AP10" s="3" t="n">
-        <v>32.0118592421643</v>
+        <v>35.2708821975384</v>
       </c>
       <c r="AQ10" s="3" t="n">
-        <v>32.7128781751594</v>
+        <v>34.9702634528605</v>
       </c>
       <c r="AR10" s="3" t="n">
-        <v>34.2882447719997</v>
+        <v>32.5587932502761</v>
       </c>
       <c r="AS10" s="3" t="n">
-        <v>31.1505641138156</v>
+        <v>30.7069987856535</v>
       </c>
       <c r="AT10" s="3" t="n">
-        <v>33.9672775607914</v>
+        <v>31.5824796136209</v>
       </c>
       <c r="AU10" s="3" t="n">
-        <v>32.2777432536713</v>
+        <v>32.1403592023069</v>
       </c>
       <c r="AV10" s="3" t="n">
-        <v>33.263864036541</v>
+        <v>31.6464601531298</v>
       </c>
       <c r="AW10" s="3" t="n">
-        <v>37.7646273434823</v>
+        <v>33.9561017378471</v>
       </c>
       <c r="AX10" s="3" t="n">
-        <v>32.7039646640831</v>
+        <v>35.086835175046</v>
       </c>
       <c r="AY10" s="3" t="n">
-        <v>34.1014754176572</v>
+        <v>35.4014670492152</v>
       </c>
       <c r="AZ10" s="3" t="n">
-        <v>33.901955960405</v>
+        <v>34.6548606259789</v>
       </c>
       <c r="BA10" s="3" t="n">
-        <v>31.7110014536866</v>
+        <v>33.2524404369459</v>
       </c>
       <c r="BB10" s="3" t="n">
-        <v>34.7110481472293</v>
+        <v>33.5303131158882</v>
       </c>
       <c r="BC10" s="3" t="n">
-        <v>34.3367931513207</v>
+        <v>33.0326721306895</v>
       </c>
       <c r="BD10" s="3" t="n">
-        <v>35.9817989358984</v>
+        <v>34.2807417891487</v>
       </c>
       <c r="BE10" s="3" t="n">
-        <v>34.6140104608046</v>
+        <v>32.001128677526</v>
       </c>
       <c r="BF10" s="3" t="n">
-        <v>36.1457669470625</v>
+        <v>30.8692396482522</v>
       </c>
       <c r="BG10" s="3" t="n">
-        <v>32.7779610406797</v>
+        <v>33.4343860823024</v>
       </c>
       <c r="BH10" s="3" t="n">
-        <v>35.2029218110694</v>
+        <v>32.6183101992788</v>
       </c>
       <c r="BI10" s="3" t="n">
-        <v>33.0507029080601</v>
+        <v>33.2828869403284</v>
       </c>
       <c r="BJ10" s="3" t="n">
-        <v>33.6744062873507</v>
+        <v>35.0854961608527</v>
       </c>
       <c r="BK10" s="3" t="n">
-        <v>33.8252534225015</v>
+        <v>31.3081311839987</v>
       </c>
       <c r="BL10" s="3" t="n">
-        <v>36.8617749843103</v>
+        <v>31.3579619847425</v>
       </c>
       <c r="BM10" s="3" t="n">
-        <v>34.7497135414117</v>
+        <v>33.0944025328264</v>
       </c>
       <c r="BN10" s="3" t="n">
-        <v>34.629160744395</v>
+        <v>33.5099540657645</v>
       </c>
       <c r="BO10" s="3" t="n">
-        <v>33.9635062637917</v>
+        <v>31.8735333158307</v>
       </c>
       <c r="BP10" s="3" t="n">
-        <v>34.2564950353997</v>
+        <v>31.9579432559225</v>
       </c>
       <c r="BQ10" s="3" t="n">
-        <v>34.6412563249146</v>
+        <v>34.8568420486616</v>
       </c>
       <c r="BR10" s="3" t="n">
-        <v>34.396799464704</v>
+        <v>33.5238580493676</v>
       </c>
       <c r="BS10" s="3" t="n">
-        <v>34.1433152967372</v>
+        <v>32.5902838557802</v>
       </c>
       <c r="BT10" s="3" t="n">
-        <v>32.6917892428421</v>
+        <v>33.6405161878991</v>
       </c>
       <c r="BU10" s="3" t="n">
-        <v>35.0078059692399</v>
+        <v>33.6549008877923</v>
       </c>
       <c r="BV10" s="3" t="n">
-        <v>30.6643305353753</v>
+        <v>34.488489375255</v>
       </c>
       <c r="BW10" s="3" t="n">
-        <v>29.9387398657854</v>
+        <v>32.5812725311317</v>
       </c>
       <c r="BX10" s="3" t="n">
-        <v>33.3225461657571</v>
+        <v>29.9058724905313</v>
       </c>
       <c r="BY10" s="3" t="n">
-        <v>33.5110832119405</v>
+        <v>32.9219249362437</v>
       </c>
       <c r="BZ10" s="3" t="n">
-        <v>33.5891502579151</v>
+        <v>32.1941921818222</v>
       </c>
       <c r="CA10" s="3" t="n">
-        <v>34.4197354077472</v>
+        <v>32.9086586089138</v>
       </c>
       <c r="CB10" s="3" t="n">
-        <v>34.8366778188281</v>
+        <v>30.3067382678902</v>
       </c>
       <c r="CC10" s="3" t="n">
-        <v>34.1039235532816</v>
+        <v>36.4345268130367</v>
       </c>
       <c r="CD10" s="3" t="n">
-        <v>35.6379168438295</v>
+        <v>30.9573557492984</v>
       </c>
       <c r="CE10" s="3" t="n">
-        <v>30.9709552125698</v>
+        <v>33.2560597295762</v>
       </c>
       <c r="CF10" s="3" t="n">
-        <v>34.7388737491259</v>
+        <v>31.8503654936352</v>
       </c>
       <c r="CG10" s="3" t="n">
-        <v>36.3765965606239</v>
+        <v>34.0069001768171</v>
       </c>
       <c r="CH10" s="3" t="n">
-        <v>35.8304556801525</v>
+        <v>31.5141497742264</v>
       </c>
       <c r="CI10" s="3" t="n">
-        <v>36.9699014739785</v>
+        <v>34.9770447641055</v>
       </c>
       <c r="CJ10" s="3" t="n">
-        <v>34.1550204517654</v>
+        <v>30.1330382590173</v>
       </c>
       <c r="CK10" s="3" t="n">
-        <v>33.406757430228</v>
+        <v>31.3638424553187</v>
       </c>
       <c r="CL10" s="3" t="n">
-        <v>33.0536863420257</v>
+        <v>32.7132631460569</v>
       </c>
       <c r="CM10" s="3" t="n">
-        <v>33.9208385547503</v>
+        <v>34.4579214931614</v>
       </c>
       <c r="CN10" s="3" t="n">
-        <v>34.0658456725032</v>
+        <v>31.8644093748159</v>
       </c>
       <c r="CO10" s="3" t="n">
-        <v>33.505171325759</v>
+        <v>31.4579891041809</v>
       </c>
       <c r="CP10" s="3" t="n">
-        <v>35.5267659224334</v>
+        <v>33.3801611388843</v>
       </c>
       <c r="CQ10" s="3" t="n">
-        <v>35.7484256509603</v>
+        <v>34.5378816856009</v>
       </c>
       <c r="CR10" s="3" t="n">
-        <v>31.5282502267368</v>
+        <v>33.5340859411151</v>
       </c>
       <c r="CS10" s="3" t="n">
-        <v>33.4851907896231</v>
+        <v>32.907903785691</v>
       </c>
       <c r="CT10" s="3" t="n">
-        <v>33.1985709127439</v>
+        <v>33.3227869704655</v>
       </c>
       <c r="CU10" s="3" t="n">
-        <v>33.0050478085342</v>
+        <v>34.1419667751495</v>
       </c>
       <c r="CV10" s="3" t="n">
-        <v>33.6636228507225</v>
+        <v>36.0733161366346</v>
       </c>
       <c r="CW10" s="3" t="n">
-        <v>34.2007827553891</v>
+        <v>35.2020484261139</v>
       </c>
       <c r="CX10" s="4" t="n">
         <v>31.6398015355362</v>
@@ -6096,304 +6096,304 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>34.0355978133302</v>
+        <v>33.5797161624194</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>36.1918202714836</v>
+        <v>33.3037272964444</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>35.8302061510249</v>
+        <v>33.5052080169438</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>35.0197818151258</v>
+        <v>32.4666796454586</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>36.2860949834829</v>
+        <v>32.142175462487</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>33.5029199416509</v>
+        <v>34.8424936118176</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>33.4862860621812</v>
+        <v>31.8005785493987</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>35.8046102045784</v>
+        <v>33.4143063758169</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>31.1538534169467</v>
+        <v>32.984090358642</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>34.3041315667637</v>
+        <v>35.066403838915</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>33.1300330926243</v>
+        <v>34.4255089208327</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>36.1406679284</v>
+        <v>33.0066712953255</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>35.5437266009203</v>
+        <v>33.5770686092045</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>32.8552088215957</v>
+        <v>33.1293358831051</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>34.4022516626288</v>
+        <v>30.4382036934011</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>30.6887385649346</v>
+        <v>34.5249829985705</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>34.2745720464651</v>
+        <v>34.2568949336639</v>
       </c>
       <c r="S11" s="3" t="n">
-        <v>35.3722205172223</v>
+        <v>33.1024876898723</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>33.5477689489375</v>
+        <v>34.8140432196279</v>
       </c>
       <c r="U11" s="3" t="n">
-        <v>34.4204243140217</v>
+        <v>33.0293141875708</v>
       </c>
       <c r="V11" s="3" t="n">
-        <v>33.7833205813741</v>
+        <v>34.1368530677242</v>
       </c>
       <c r="W11" s="3" t="n">
-        <v>37.0486817844565</v>
+        <v>34.5922501591327</v>
       </c>
       <c r="X11" s="3" t="n">
-        <v>34.1574982001662</v>
+        <v>33.2603236067251</v>
       </c>
       <c r="Y11" s="3" t="n">
-        <v>34.4673717668328</v>
+        <v>32.6012943495747</v>
       </c>
       <c r="Z11" s="3" t="n">
-        <v>35.9645991954439</v>
+        <v>32.8322506256184</v>
       </c>
       <c r="AA11" s="3" t="n">
-        <v>34.2566305677688</v>
+        <v>35.2000487721731</v>
       </c>
       <c r="AB11" s="3" t="n">
-        <v>34.8070833870168</v>
+        <v>35.3794894474425</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>32.6541797391656</v>
+        <v>34.317866621803</v>
       </c>
       <c r="AD11" s="3" t="n">
-        <v>35.450404096607</v>
+        <v>32.2600592094848</v>
       </c>
       <c r="AE11" s="3" t="n">
-        <v>33.6402484900338</v>
+        <v>32.4716279357479</v>
       </c>
       <c r="AF11" s="3" t="n">
-        <v>34.7750936353877</v>
+        <v>33.5803122316776</v>
       </c>
       <c r="AG11" s="3" t="n">
-        <v>35.7199925302936</v>
+        <v>35.8971885374742</v>
       </c>
       <c r="AH11" s="3" t="n">
-        <v>33.6311615094523</v>
+        <v>34.2873207853613</v>
       </c>
       <c r="AI11" s="3" t="n">
-        <v>32.4011786048172</v>
+        <v>33.217848669716</v>
       </c>
       <c r="AJ11" s="3" t="n">
-        <v>32.1624697289456</v>
+        <v>33.3897823751356</v>
       </c>
       <c r="AK11" s="3" t="n">
-        <v>34.9615678834626</v>
+        <v>33.2217803522717</v>
       </c>
       <c r="AL11" s="3" t="n">
-        <v>34.8509605463512</v>
+        <v>33.7361557850786</v>
       </c>
       <c r="AM11" s="3" t="n">
-        <v>35.6145642313138</v>
+        <v>31.9198062433109</v>
       </c>
       <c r="AN11" s="3" t="n">
-        <v>33.8440818342432</v>
+        <v>34.5796296772141</v>
       </c>
       <c r="AO11" s="3" t="n">
-        <v>35.749750678705</v>
+        <v>34.5138983226452</v>
       </c>
       <c r="AP11" s="3" t="n">
-        <v>35.2432400214154</v>
+        <v>34.824466200844</v>
       </c>
       <c r="AQ11" s="3" t="n">
-        <v>35.0771837016475</v>
+        <v>33.6879441638185</v>
       </c>
       <c r="AR11" s="3" t="n">
-        <v>34.6120950805633</v>
+        <v>35.781020307927</v>
       </c>
       <c r="AS11" s="3" t="n">
-        <v>32.6227155343859</v>
+        <v>31.0172880274443</v>
       </c>
       <c r="AT11" s="3" t="n">
-        <v>36.0142378847631</v>
+        <v>32.3563320242432</v>
       </c>
       <c r="AU11" s="3" t="n">
-        <v>33.9627403733017</v>
+        <v>32.4044045445828</v>
       </c>
       <c r="AV11" s="3" t="n">
-        <v>32.184504938009</v>
+        <v>32.7442348577385</v>
       </c>
       <c r="AW11" s="3" t="n">
-        <v>34.7317972759794</v>
+        <v>33.5435577606749</v>
       </c>
       <c r="AX11" s="3" t="n">
-        <v>33.5498058126661</v>
+        <v>34.6903903518087</v>
       </c>
       <c r="AY11" s="3" t="n">
-        <v>35.5399149957627</v>
+        <v>35.1623366774602</v>
       </c>
       <c r="AZ11" s="3" t="n">
-        <v>35.7898096192322</v>
+        <v>35.1818913292267</v>
       </c>
       <c r="BA11" s="3" t="n">
-        <v>33.1926854025648</v>
+        <v>33.8882387872353</v>
       </c>
       <c r="BB11" s="3" t="n">
-        <v>34.2815085861971</v>
+        <v>35.2377265198596</v>
       </c>
       <c r="BC11" s="3" t="n">
-        <v>32.5001957929894</v>
+        <v>32.2195809516855</v>
       </c>
       <c r="BD11" s="3" t="n">
-        <v>32.3092281039725</v>
+        <v>34.3807301769529</v>
       </c>
       <c r="BE11" s="3" t="n">
-        <v>33.4360261756471</v>
+        <v>31.816934910692</v>
       </c>
       <c r="BF11" s="3" t="n">
-        <v>34.9881746684883</v>
+        <v>33.3924193265981</v>
       </c>
       <c r="BG11" s="3" t="n">
-        <v>30.4213684473773</v>
+        <v>35.0641801677236</v>
       </c>
       <c r="BH11" s="3" t="n">
-        <v>36.2134676617687</v>
+        <v>31.6595990320902</v>
       </c>
       <c r="BI11" s="3" t="n">
-        <v>33.5897412935345</v>
+        <v>31.6293118408744</v>
       </c>
       <c r="BJ11" s="3" t="n">
-        <v>34.5110648032884</v>
+        <v>34.6468245261192</v>
       </c>
       <c r="BK11" s="3" t="n">
-        <v>33.2010343110511</v>
+        <v>31.7760299752439</v>
       </c>
       <c r="BL11" s="3" t="n">
-        <v>34.9205023113634</v>
+        <v>31.5217466823767</v>
       </c>
       <c r="BM11" s="3" t="n">
-        <v>34.6819010533021</v>
+        <v>32.2342162976101</v>
       </c>
       <c r="BN11" s="3" t="n">
-        <v>34.4699495771233</v>
+        <v>33.5785495660411</v>
       </c>
       <c r="BO11" s="3" t="n">
-        <v>34.8992529421518</v>
+        <v>34.3021440576059</v>
       </c>
       <c r="BP11" s="3" t="n">
-        <v>33.4631174536207</v>
+        <v>33.532293601951</v>
       </c>
       <c r="BQ11" s="3" t="n">
-        <v>37.5846561781887</v>
+        <v>34.6303396631379</v>
       </c>
       <c r="BR11" s="3" t="n">
-        <v>32.7958075782142</v>
+        <v>32.3968817405747</v>
       </c>
       <c r="BS11" s="3" t="n">
-        <v>33.8735187855295</v>
+        <v>33.9262525747315</v>
       </c>
       <c r="BT11" s="3" t="n">
-        <v>33.5926016450911</v>
+        <v>32.7872676601634</v>
       </c>
       <c r="BU11" s="3" t="n">
-        <v>34.5802272591962</v>
+        <v>34.030479007034</v>
       </c>
       <c r="BV11" s="3" t="n">
-        <v>33.3195803764362</v>
+        <v>30.4403926918411</v>
       </c>
       <c r="BW11" s="3" t="n">
-        <v>33.8156810971565</v>
+        <v>32.8430343196003</v>
       </c>
       <c r="BX11" s="3" t="n">
-        <v>36.9717241432021</v>
+        <v>30.8849104112816</v>
       </c>
       <c r="BY11" s="3" t="n">
-        <v>33.1963714166151</v>
+        <v>31.3105575316843</v>
       </c>
       <c r="BZ11" s="3" t="n">
-        <v>34.8924697607593</v>
+        <v>32.3051323892863</v>
       </c>
       <c r="CA11" s="3" t="n">
-        <v>33.2065901711875</v>
+        <v>35.0936020319498</v>
       </c>
       <c r="CB11" s="3" t="n">
-        <v>34.7176855027728</v>
+        <v>30.8417113632525</v>
       </c>
       <c r="CC11" s="3" t="n">
-        <v>31.8264869578787</v>
+        <v>36.7305817736347</v>
       </c>
       <c r="CD11" s="3" t="n">
-        <v>36.7539612712287</v>
+        <v>32.0135908379158</v>
       </c>
       <c r="CE11" s="3" t="n">
-        <v>34.8992038013998</v>
+        <v>33.5687713199111</v>
       </c>
       <c r="CF11" s="3" t="n">
-        <v>35.0353592474157</v>
+        <v>34.0225113366476</v>
       </c>
       <c r="CG11" s="3" t="n">
-        <v>35.2484305974481</v>
+        <v>31.9500186964336</v>
       </c>
       <c r="CH11" s="3" t="n">
-        <v>34.2948740395206</v>
+        <v>32.1928542377518</v>
       </c>
       <c r="CI11" s="3" t="n">
-        <v>33.9040308197957</v>
+        <v>33.5139427770268</v>
       </c>
       <c r="CJ11" s="3" t="n">
-        <v>33.6504964688698</v>
+        <v>31.7869089263002</v>
       </c>
       <c r="CK11" s="3" t="n">
-        <v>33.2763006694161</v>
+        <v>30.3140994340598</v>
       </c>
       <c r="CL11" s="3" t="n">
-        <v>31.2287300889266</v>
+        <v>34.7920361727767</v>
       </c>
       <c r="CM11" s="3" t="n">
-        <v>35.9851705183091</v>
+        <v>34.5855440520598</v>
       </c>
       <c r="CN11" s="3" t="n">
-        <v>32.0571971972009</v>
+        <v>34.283697535161</v>
       </c>
       <c r="CO11" s="3" t="n">
-        <v>34.9901041245372</v>
+        <v>32.0184010109842</v>
       </c>
       <c r="CP11" s="3" t="n">
-        <v>32.2403109616365</v>
+        <v>32.8008745599782</v>
       </c>
       <c r="CQ11" s="3" t="n">
-        <v>34.0560400375383</v>
+        <v>36.7491310833219</v>
       </c>
       <c r="CR11" s="3" t="n">
-        <v>33.6855992058324</v>
+        <v>33.9261791825446</v>
       </c>
       <c r="CS11" s="3" t="n">
-        <v>32.9122718825985</v>
+        <v>33.182904372055</v>
       </c>
       <c r="CT11" s="3" t="n">
-        <v>34.1055233396478</v>
+        <v>34.5283455563926</v>
       </c>
       <c r="CU11" s="3" t="n">
-        <v>35.7598683852105</v>
+        <v>33.3635630845559</v>
       </c>
       <c r="CV11" s="3" t="n">
-        <v>35.266699482526</v>
+        <v>33.1491616336729</v>
       </c>
       <c r="CW11" s="3" t="n">
-        <v>34.4127511327424</v>
+        <v>34.4140542273207</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6401,304 +6401,304 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>33.5904065753187</v>
+        <v>32.4216061395018</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>35.3875325697031</v>
+        <v>32.5765928355734</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>32.5456859646987</v>
+        <v>31.5535598806314</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>35.7506487997702</v>
+        <v>34.4453367286015</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>35.1206188655998</v>
+        <v>33.8170107337004</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>32.8381923128329</v>
+        <v>32.5907616361011</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>31.9859363984968</v>
+        <v>35.1255640842108</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>36.359473590367</v>
+        <v>32.7389433615583</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>34.2329545772423</v>
+        <v>32.3248265128735</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>35.8803377139443</v>
+        <v>32.0978086905972</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>33.8180211612398</v>
+        <v>30.4673995328198</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>33.133721811659</v>
+        <v>33.7856508620962</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>37.2240843976455</v>
+        <v>31.2894176532672</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>34.4557528245747</v>
+        <v>32.8039733679493</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>33.4399745820259</v>
+        <v>32.5630677754418</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>32.0275205048601</v>
+        <v>35.2552868423543</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>36.6094093115322</v>
+        <v>30.4676659350414</v>
       </c>
       <c r="S12" s="3" t="n">
-        <v>34.6566795529349</v>
+        <v>31.226431464518</v>
       </c>
       <c r="T12" s="3" t="n">
-        <v>36.7861928239309</v>
+        <v>32.6515866981434</v>
       </c>
       <c r="U12" s="3" t="n">
-        <v>35.2965975454992</v>
+        <v>32.7955363987872</v>
       </c>
       <c r="V12" s="3" t="n">
-        <v>33.1566764244214</v>
+        <v>30.8705557922968</v>
       </c>
       <c r="W12" s="3" t="n">
-        <v>36.5948135262484</v>
+        <v>35.056546351531</v>
       </c>
       <c r="X12" s="3" t="n">
-        <v>33.5904597188175</v>
+        <v>34.5145193770566</v>
       </c>
       <c r="Y12" s="3" t="n">
-        <v>34.7701782612668</v>
+        <v>32.6796257403712</v>
       </c>
       <c r="Z12" s="3" t="n">
-        <v>34.3025087934187</v>
+        <v>34.0521343908959</v>
       </c>
       <c r="AA12" s="3" t="n">
-        <v>35.7450990109938</v>
+        <v>34.6831191522097</v>
       </c>
       <c r="AB12" s="3" t="n">
-        <v>34.5216356754144</v>
+        <v>33.6145312455566</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>36.387619739389</v>
+        <v>33.1427287428074</v>
       </c>
       <c r="AD12" s="3" t="n">
-        <v>37.1131168806252</v>
+        <v>30.8618336152292</v>
       </c>
       <c r="AE12" s="3" t="n">
-        <v>37.2011814128061</v>
+        <v>33.1723573071012</v>
       </c>
       <c r="AF12" s="3" t="n">
-        <v>34.1361861112109</v>
+        <v>35.4484206256339</v>
       </c>
       <c r="AG12" s="3" t="n">
-        <v>34.7788260000134</v>
+        <v>33.8782567269036</v>
       </c>
       <c r="AH12" s="3" t="n">
-        <v>35.1597053038781</v>
+        <v>32.0676509106419</v>
       </c>
       <c r="AI12" s="3" t="n">
-        <v>34.0249551437089</v>
+        <v>33.53545938726</v>
       </c>
       <c r="AJ12" s="3" t="n">
-        <v>34.4407402634898</v>
+        <v>33.7271846430203</v>
       </c>
       <c r="AK12" s="3" t="n">
-        <v>35.2855468613407</v>
+        <v>34.0243400421242</v>
       </c>
       <c r="AL12" s="3" t="n">
-        <v>37.0253022229565</v>
+        <v>33.3600499063234</v>
       </c>
       <c r="AM12" s="3" t="n">
-        <v>33.9830927625708</v>
+        <v>33.0993585008487</v>
       </c>
       <c r="AN12" s="3" t="n">
-        <v>33.5523901512486</v>
+        <v>33.2405438164069</v>
       </c>
       <c r="AO12" s="3" t="n">
-        <v>35.9183888707723</v>
+        <v>31.9418653380528</v>
       </c>
       <c r="AP12" s="3" t="n">
-        <v>32.6617189244874</v>
+        <v>34.6336772553877</v>
       </c>
       <c r="AQ12" s="3" t="n">
-        <v>31.9809223258025</v>
+        <v>31.5588641537678</v>
       </c>
       <c r="AR12" s="3" t="n">
-        <v>33.5941559531437</v>
+        <v>35.2562812787897</v>
       </c>
       <c r="AS12" s="3" t="n">
-        <v>35.1642809108032</v>
+        <v>34.5235948805578</v>
       </c>
       <c r="AT12" s="3" t="n">
-        <v>35.0227582843106</v>
+        <v>33.3834322098382</v>
       </c>
       <c r="AU12" s="3" t="n">
-        <v>35.456298869929</v>
+        <v>32.420610590011</v>
       </c>
       <c r="AV12" s="3" t="n">
-        <v>36.0766974117239</v>
+        <v>34.2171672883847</v>
       </c>
       <c r="AW12" s="3" t="n">
-        <v>34.8832247914477</v>
+        <v>36.04318032001</v>
       </c>
       <c r="AX12" s="3" t="n">
-        <v>35.5593420409549</v>
+        <v>33.6566551261091</v>
       </c>
       <c r="AY12" s="3" t="n">
-        <v>33.9184860155907</v>
+        <v>36.5712997054822</v>
       </c>
       <c r="AZ12" s="3" t="n">
-        <v>32.7214238889241</v>
+        <v>35.7785307132087</v>
       </c>
       <c r="BA12" s="3" t="n">
-        <v>32.1109046716467</v>
+        <v>34.0995717008645</v>
       </c>
       <c r="BB12" s="3" t="n">
-        <v>35.0798418915382</v>
+        <v>33.623677120896</v>
       </c>
       <c r="BC12" s="3" t="n">
-        <v>36.0111727528757</v>
+        <v>33.7206762765133</v>
       </c>
       <c r="BD12" s="3" t="n">
-        <v>36.6962360147836</v>
+        <v>31.7353370364069</v>
       </c>
       <c r="BE12" s="3" t="n">
-        <v>32.9641426808864</v>
+        <v>32.5486473383892</v>
       </c>
       <c r="BF12" s="3" t="n">
-        <v>35.0311881689539</v>
+        <v>33.8755715730577</v>
       </c>
       <c r="BG12" s="3" t="n">
-        <v>33.9847875670814</v>
+        <v>33.2997042035696</v>
       </c>
       <c r="BH12" s="3" t="n">
-        <v>34.4509279709294</v>
+        <v>34.1305942477795</v>
       </c>
       <c r="BI12" s="3" t="n">
-        <v>31.7760111882886</v>
+        <v>33.3473379345346</v>
       </c>
       <c r="BJ12" s="3" t="n">
-        <v>34.6945809760062</v>
+        <v>33.5681335489417</v>
       </c>
       <c r="BK12" s="3" t="n">
-        <v>32.9660726868776</v>
+        <v>32.9357976361496</v>
       </c>
       <c r="BL12" s="3" t="n">
-        <v>33.4533282562618</v>
+        <v>31.5670325734075</v>
       </c>
       <c r="BM12" s="3" t="n">
-        <v>34.7250354492701</v>
+        <v>31.0991474514728</v>
       </c>
       <c r="BN12" s="3" t="n">
-        <v>32.0217739315972</v>
+        <v>32.5351100153535</v>
       </c>
       <c r="BO12" s="3" t="n">
-        <v>34.3360306853091</v>
+        <v>35.3084163347111</v>
       </c>
       <c r="BP12" s="3" t="n">
-        <v>33.1228018546095</v>
+        <v>33.292435460461</v>
       </c>
       <c r="BQ12" s="3" t="n">
-        <v>32.8091344344221</v>
+        <v>32.4312787674326</v>
       </c>
       <c r="BR12" s="3" t="n">
-        <v>32.9740010156937</v>
+        <v>35.717613667753</v>
       </c>
       <c r="BS12" s="3" t="n">
-        <v>35.3442979361215</v>
+        <v>31.9931452917841</v>
       </c>
       <c r="BT12" s="3" t="n">
-        <v>33.9058356390271</v>
+        <v>33.1066171678008</v>
       </c>
       <c r="BU12" s="3" t="n">
-        <v>35.9936400926822</v>
+        <v>31.5085023503495</v>
       </c>
       <c r="BV12" s="3" t="n">
-        <v>33.8019642771987</v>
+        <v>32.4023373100435</v>
       </c>
       <c r="BW12" s="3" t="n">
-        <v>34.0791497743609</v>
+        <v>32.9481397740844</v>
       </c>
       <c r="BX12" s="3" t="n">
-        <v>36.9569572119783</v>
+        <v>30.961497493534</v>
       </c>
       <c r="BY12" s="3" t="n">
-        <v>32.0607439028206</v>
+        <v>32.4327569105159</v>
       </c>
       <c r="BZ12" s="3" t="n">
-        <v>35.5994976504489</v>
+        <v>33.6556016526315</v>
       </c>
       <c r="CA12" s="3" t="n">
-        <v>34.9648994716526</v>
+        <v>31.8925621252602</v>
       </c>
       <c r="CB12" s="3" t="n">
-        <v>37.38978419717</v>
+        <v>34.6227252548131</v>
       </c>
       <c r="CC12" s="3" t="n">
-        <v>32.8006742421494</v>
+        <v>33.2752131624557</v>
       </c>
       <c r="CD12" s="3" t="n">
-        <v>36.2416332075541</v>
+        <v>32.7745628404239</v>
       </c>
       <c r="CE12" s="3" t="n">
-        <v>32.2390010149576</v>
+        <v>31.837003453024</v>
       </c>
       <c r="CF12" s="3" t="n">
-        <v>34.724301355623</v>
+        <v>32.586057587718</v>
       </c>
       <c r="CG12" s="3" t="n">
-        <v>34.9484548986061</v>
+        <v>34.0836665113127</v>
       </c>
       <c r="CH12" s="3" t="n">
-        <v>33.9631848250808</v>
+        <v>32.6954942273917</v>
       </c>
       <c r="CI12" s="3" t="n">
-        <v>35.7008001951977</v>
+        <v>33.4705907403319</v>
       </c>
       <c r="CJ12" s="3" t="n">
-        <v>37.1722102764887</v>
+        <v>33.02581019643</v>
       </c>
       <c r="CK12" s="3" t="n">
-        <v>35.4520032645026</v>
+        <v>29.738503517832</v>
       </c>
       <c r="CL12" s="3" t="n">
-        <v>36.0372583683903</v>
+        <v>32.2152458655269</v>
       </c>
       <c r="CM12" s="3" t="n">
-        <v>36.3545006612471</v>
+        <v>34.3080687613221</v>
       </c>
       <c r="CN12" s="3" t="n">
-        <v>37.0209091222117</v>
+        <v>34.3637167912816</v>
       </c>
       <c r="CO12" s="3" t="n">
-        <v>36.8525670389671</v>
+        <v>34.0827064903437</v>
       </c>
       <c r="CP12" s="3" t="n">
-        <v>33.6260882346101</v>
+        <v>31.4932867927803</v>
       </c>
       <c r="CQ12" s="3" t="n">
-        <v>33.8468336927981</v>
+        <v>33.90020836879</v>
       </c>
       <c r="CR12" s="3" t="n">
-        <v>30.7119858836209</v>
+        <v>31.6472772592568</v>
       </c>
       <c r="CS12" s="3" t="n">
-        <v>34.9671423133608</v>
+        <v>33.4831895838238</v>
       </c>
       <c r="CT12" s="3" t="n">
-        <v>35.6953950581555</v>
+        <v>34.7599807279358</v>
       </c>
       <c r="CU12" s="3" t="n">
-        <v>35.0402504248172</v>
+        <v>32.9358022825161</v>
       </c>
       <c r="CV12" s="3" t="n">
-        <v>37.496692079541</v>
+        <v>34.9742031818617</v>
       </c>
       <c r="CW12" s="3" t="n">
-        <v>35.6965709593054</v>
+        <v>32.2701613190973</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6706,304 +6706,304 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>33.965650184155</v>
+        <v>34.2799114816348</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>34.7660928224908</v>
+        <v>34.9972005287159</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>36.7267939017365</v>
+        <v>35.643998526652</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>35.0428696037863</v>
+        <v>34.9958584887637</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>34.9026516841533</v>
+        <v>32.929329026716</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>34.7489148636222</v>
+        <v>32.288995695814</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>35.7455291920776</v>
+        <v>31.4923570199517</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>33.0210339790368</v>
+        <v>30.2490385713681</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>33.954262724849</v>
+        <v>31.4802860981789</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>33.3156889861849</v>
+        <v>32.0969046354252</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>36.5025997476481</v>
+        <v>33.0243090499958</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>35.698652471409</v>
+        <v>31.791246653491</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>36.2388422960943</v>
+        <v>32.2870238715254</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>34.9938362411332</v>
+        <v>33.3760338903924</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>35.4472513541658</v>
+        <v>31.5644229272497</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>34.8260819509151</v>
+        <v>32.9686759430798</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>32.9340052937112</v>
+        <v>33.499966825122</v>
       </c>
       <c r="S13" s="3" t="n">
-        <v>33.7523067380572</v>
+        <v>32.6272386030709</v>
       </c>
       <c r="T13" s="3" t="n">
-        <v>34.481818595672</v>
+        <v>35.3506029536753</v>
       </c>
       <c r="U13" s="3" t="n">
-        <v>33.4858857811752</v>
+        <v>30.3925067108174</v>
       </c>
       <c r="V13" s="3" t="n">
-        <v>33.8462511829701</v>
+        <v>33.0484694819364</v>
       </c>
       <c r="W13" s="3" t="n">
-        <v>37.0307427553599</v>
+        <v>36.3332326944549</v>
       </c>
       <c r="X13" s="3" t="n">
-        <v>33.834080527455</v>
+        <v>29.6606752181024</v>
       </c>
       <c r="Y13" s="3" t="n">
-        <v>35.2340331114636</v>
+        <v>33.8268147707467</v>
       </c>
       <c r="Z13" s="3" t="n">
-        <v>35.6522657093632</v>
+        <v>31.8270274796542</v>
       </c>
       <c r="AA13" s="3" t="n">
-        <v>33.8205699876764</v>
+        <v>33.909701187689</v>
       </c>
       <c r="AB13" s="3" t="n">
-        <v>34.4160432096938</v>
+        <v>34.0406767605731</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>34.7777857652578</v>
+        <v>36.6441545929907</v>
       </c>
       <c r="AD13" s="3" t="n">
-        <v>35.3477447998547</v>
+        <v>32.5826010968312</v>
       </c>
       <c r="AE13" s="3" t="n">
-        <v>34.7018611798871</v>
+        <v>33.2677294324914</v>
       </c>
       <c r="AF13" s="3" t="n">
-        <v>35.2467942626642</v>
+        <v>33.4141378215397</v>
       </c>
       <c r="AG13" s="3" t="n">
-        <v>35.165340021256</v>
+        <v>34.1702013944459</v>
       </c>
       <c r="AH13" s="3" t="n">
-        <v>33.4413549837061</v>
+        <v>34.7812549595716</v>
       </c>
       <c r="AI13" s="3" t="n">
-        <v>36.6263772038309</v>
+        <v>31.1756001371739</v>
       </c>
       <c r="AJ13" s="3" t="n">
-        <v>35.3944420020703</v>
+        <v>32.3792122409253</v>
       </c>
       <c r="AK13" s="3" t="n">
-        <v>34.1740512395767</v>
+        <v>32.2057189445629</v>
       </c>
       <c r="AL13" s="3" t="n">
-        <v>34.5105851371365</v>
+        <v>30.1403165643909</v>
       </c>
       <c r="AM13" s="3" t="n">
-        <v>33.7755758918469</v>
+        <v>34.0753488941925</v>
       </c>
       <c r="AN13" s="3" t="n">
-        <v>34.2285335842154</v>
+        <v>34.0751236392188</v>
       </c>
       <c r="AO13" s="3" t="n">
-        <v>33.109225034511</v>
+        <v>32.2885113775509</v>
       </c>
       <c r="AP13" s="3" t="n">
-        <v>33.9309780071227</v>
+        <v>35.5661520307176</v>
       </c>
       <c r="AQ13" s="3" t="n">
-        <v>33.8226708022664</v>
+        <v>31.3104117872159</v>
       </c>
       <c r="AR13" s="3" t="n">
-        <v>37.0670137150547</v>
+        <v>32.6977733782574</v>
       </c>
       <c r="AS13" s="3" t="n">
-        <v>34.8696503582079</v>
+        <v>31.4807216094653</v>
       </c>
       <c r="AT13" s="3" t="n">
-        <v>35.7380721752063</v>
+        <v>32.0511201892876</v>
       </c>
       <c r="AU13" s="3" t="n">
-        <v>33.4352012892575</v>
+        <v>34.5674328398509</v>
       </c>
       <c r="AV13" s="3" t="n">
-        <v>34.9833166260335</v>
+        <v>34.5240344003806</v>
       </c>
       <c r="AW13" s="3" t="n">
-        <v>35.6414247458504</v>
+        <v>33.8499846657444</v>
       </c>
       <c r="AX13" s="3" t="n">
-        <v>36.2166097251649</v>
+        <v>34.6557409079835</v>
       </c>
       <c r="AY13" s="3" t="n">
-        <v>35.4847199555986</v>
+        <v>33.0111094007344</v>
       </c>
       <c r="AZ13" s="3" t="n">
-        <v>33.5510633348277</v>
+        <v>33.7156838108227</v>
       </c>
       <c r="BA13" s="3" t="n">
-        <v>32.9633302763256</v>
+        <v>33.2899840582973</v>
       </c>
       <c r="BB13" s="3" t="n">
-        <v>33.9986165466979</v>
+        <v>35.2947052364251</v>
       </c>
       <c r="BC13" s="3" t="n">
-        <v>34.8224738736523</v>
+        <v>31.0445655754124</v>
       </c>
       <c r="BD13" s="3" t="n">
-        <v>34.2342432515098</v>
+        <v>34.2900690600107</v>
       </c>
       <c r="BE13" s="3" t="n">
-        <v>33.2876018638695</v>
+        <v>33.4409687739721</v>
       </c>
       <c r="BF13" s="3" t="n">
-        <v>37.9560960223057</v>
+        <v>33.8715291534711</v>
       </c>
       <c r="BG13" s="3" t="n">
-        <v>32.3975852607617</v>
+        <v>34.4152724799842</v>
       </c>
       <c r="BH13" s="3" t="n">
-        <v>34.9307572899339</v>
+        <v>33.3222554196325</v>
       </c>
       <c r="BI13" s="3" t="n">
-        <v>34.9960427664774</v>
+        <v>32.6913863419899</v>
       </c>
       <c r="BJ13" s="3" t="n">
-        <v>35.0593679350519</v>
+        <v>34.4412568629507</v>
       </c>
       <c r="BK13" s="3" t="n">
-        <v>34.0314365752762</v>
+        <v>33.2399634089864</v>
       </c>
       <c r="BL13" s="3" t="n">
-        <v>36.3093613413823</v>
+        <v>31.2810012308898</v>
       </c>
       <c r="BM13" s="3" t="n">
-        <v>34.802589770505</v>
+        <v>34.3867075988219</v>
       </c>
       <c r="BN13" s="3" t="n">
-        <v>36.2556905650835</v>
+        <v>32.0809658508621</v>
       </c>
       <c r="BO13" s="3" t="n">
-        <v>35.7677762634872</v>
+        <v>33.8886161033213</v>
       </c>
       <c r="BP13" s="3" t="n">
-        <v>36.0897192561306</v>
+        <v>32.785243218766</v>
       </c>
       <c r="BQ13" s="3" t="n">
-        <v>36.6368209286917</v>
+        <v>32.9679634538282</v>
       </c>
       <c r="BR13" s="3" t="n">
-        <v>34.094739423562</v>
+        <v>34.7515735139175</v>
       </c>
       <c r="BS13" s="3" t="n">
-        <v>35.5319960343208</v>
+        <v>33.9256367847853</v>
       </c>
       <c r="BT13" s="3" t="n">
-        <v>34.0121257244892</v>
+        <v>31.8813326273858</v>
       </c>
       <c r="BU13" s="3" t="n">
-        <v>33.1808068884804</v>
+        <v>33.1246095923357</v>
       </c>
       <c r="BV13" s="3" t="n">
-        <v>34.60167505257</v>
+        <v>33.7226798717688</v>
       </c>
       <c r="BW13" s="3" t="n">
-        <v>33.6346697094574</v>
+        <v>34.801552831223</v>
       </c>
       <c r="BX13" s="3" t="n">
-        <v>35.7933272312569</v>
+        <v>31.2197132393431</v>
       </c>
       <c r="BY13" s="3" t="n">
-        <v>35.7362805032016</v>
+        <v>31.0781150092528</v>
       </c>
       <c r="BZ13" s="3" t="n">
-        <v>34.673263640185</v>
+        <v>33.6225688720695</v>
       </c>
       <c r="CA13" s="3" t="n">
-        <v>36.137015883037</v>
+        <v>33.9211646867849</v>
       </c>
       <c r="CB13" s="3" t="n">
-        <v>35.7753060814446</v>
+        <v>31.7996877049735</v>
       </c>
       <c r="CC13" s="3" t="n">
-        <v>35.3579846274169</v>
+        <v>34.8467453354728</v>
       </c>
       <c r="CD13" s="3" t="n">
-        <v>36.0812726679806</v>
+        <v>31.1543787751437</v>
       </c>
       <c r="CE13" s="3" t="n">
-        <v>35.1740321514358</v>
+        <v>32.7958030789147</v>
       </c>
       <c r="CF13" s="3" t="n">
-        <v>34.4528812366592</v>
+        <v>32.478283555202</v>
       </c>
       <c r="CG13" s="3" t="n">
-        <v>37.5629082527821</v>
+        <v>30.8476469432072</v>
       </c>
       <c r="CH13" s="3" t="n">
-        <v>31.3852885712538</v>
+        <v>31.806317767541</v>
       </c>
       <c r="CI13" s="3" t="n">
-        <v>32.2270960811273</v>
+        <v>34.3908788254755</v>
       </c>
       <c r="CJ13" s="3" t="n">
-        <v>33.5890557023547</v>
+        <v>32.8559644079809</v>
       </c>
       <c r="CK13" s="3" t="n">
-        <v>33.3044094738862</v>
+        <v>31.2258968710171</v>
       </c>
       <c r="CL13" s="3" t="n">
-        <v>34.893339586388</v>
+        <v>34.2238870582828</v>
       </c>
       <c r="CM13" s="3" t="n">
-        <v>35.4612716670652</v>
+        <v>31.5039461983288</v>
       </c>
       <c r="CN13" s="3" t="n">
-        <v>33.0460912030733</v>
+        <v>33.4118536761766</v>
       </c>
       <c r="CO13" s="3" t="n">
-        <v>35.4426371501022</v>
+        <v>34.9182272123938</v>
       </c>
       <c r="CP13" s="3" t="n">
-        <v>34.8274163563599</v>
+        <v>32.6017459784609</v>
       </c>
       <c r="CQ13" s="3" t="n">
-        <v>36.3575874520153</v>
+        <v>35.8455793721464</v>
       </c>
       <c r="CR13" s="3" t="n">
-        <v>33.4855574073349</v>
+        <v>33.0788774497433</v>
       </c>
       <c r="CS13" s="3" t="n">
-        <v>32.553938065273</v>
+        <v>35.5102065824776</v>
       </c>
       <c r="CT13" s="3" t="n">
-        <v>34.3841656545889</v>
+        <v>31.7378202551954</v>
       </c>
       <c r="CU13" s="3" t="n">
-        <v>34.3452536425988</v>
+        <v>35.1699310634829</v>
       </c>
       <c r="CV13" s="3" t="n">
-        <v>34.4379204644059</v>
+        <v>37.0673289746584</v>
       </c>
       <c r="CW13" s="3" t="n">
-        <v>35.5903333089441</v>
+        <v>34.0349902960828</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7032,7 +7032,7 @@
   <dimension ref="A1:GS13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:CX13"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11357,7 +11357,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="C2:CX13"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11741,7 +11741,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="C2:CX13"/>
+      <selection pane="bottomRight" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12069,12 +12069,12 @@
   </sheetPr>
   <dimension ref="A1:CX49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2:CX13"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pidsg25-02.xlsx
+++ b/pidsg25-02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debdeeppaul/Documents/Procurement/PIDSG25/forecast25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E6ED55-60D6-3F43-9E62-E3A20C7D500D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D213A471-CEDC-6640-A53B-11597ECFF09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="12220" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="12220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p1normal" sheetId="1" r:id="rId1"/>
@@ -11573,8 +11573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12213,7 +12213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CX49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
